--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,251 +614,6 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>95.10188558031456</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>142.6528283704718</v>
-      </c>
-      <c r="H7">
-        <v>0.34</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>0.11</v>
-      </c>
-      <c r="K7">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>100.6937895111742</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>151.0406842667613</v>
-      </c>
-      <c r="H8">
-        <v>0.39</v>
-      </c>
-      <c r="I8">
-        <v>0.45</v>
-      </c>
-      <c r="J8">
-        <v>0.14</v>
-      </c>
-      <c r="K8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>122.9626083453766</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>184.4439125180649</v>
-      </c>
-      <c r="H9">
-        <v>0.4</v>
-      </c>
-      <c r="I9">
-        <v>0.44</v>
-      </c>
-      <c r="J9">
-        <v>0.19</v>
-      </c>
-      <c r="K9">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>217.7285845022828</v>
-      </c>
-      <c r="D10">
-        <v>0.00555556</v>
-      </c>
-      <c r="E10">
-        <v>0.00555556</v>
-      </c>
-      <c r="F10">
-        <v>0.01111112</v>
-      </c>
-      <c r="G10">
-        <v>326.5928767534242</v>
-      </c>
-      <c r="H10">
-        <v>0.38</v>
-      </c>
-      <c r="I10">
-        <v>0.41</v>
-      </c>
-      <c r="J10">
-        <v>0.17</v>
-      </c>
-      <c r="K10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>340.6121553362682</v>
-      </c>
-      <c r="D11">
-        <v>0.02222224</v>
-      </c>
-      <c r="E11">
-        <v>0.02222224</v>
-      </c>
-      <c r="F11">
-        <v>0.04444448</v>
-      </c>
-      <c r="G11">
-        <v>510.9182330044023</v>
-      </c>
-      <c r="H11">
-        <v>0.38</v>
-      </c>
-      <c r="I11">
-        <v>0.47</v>
-      </c>
-      <c r="J11">
-        <v>0.18</v>
-      </c>
-      <c r="K11">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>428.3635523572899</v>
-      </c>
-      <c r="D12">
-        <v>0.08611118000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.08611118000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.17222236</v>
-      </c>
-      <c r="G12">
-        <v>642.5453285359349</v>
-      </c>
-      <c r="H12">
-        <v>0.4</v>
-      </c>
-      <c r="I12">
-        <v>0.45</v>
-      </c>
-      <c r="J12">
-        <v>0.12</v>
-      </c>
-      <c r="K12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>498.7069374946091</v>
-      </c>
-      <c r="D13">
-        <v>0.10000008</v>
-      </c>
-      <c r="E13">
-        <v>0.10000008</v>
-      </c>
-      <c r="F13">
-        <v>0.20000016</v>
-      </c>
-      <c r="G13">
-        <v>748.0604062419137</v>
-      </c>
-      <c r="H13">
-        <v>0.34</v>
-      </c>
-      <c r="I13">
-        <v>0.42</v>
-      </c>
-      <c r="J13">
-        <v>0.14</v>
-      </c>
-      <c r="K13">
-        <v>0.3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,6 +614,181 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>95.10188558031456</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>142.6528283704718</v>
+      </c>
+      <c r="H7">
+        <v>0.34</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>0.11</v>
+      </c>
+      <c r="K7">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>100.6937895111742</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>151.0406842667613</v>
+      </c>
+      <c r="H8">
+        <v>0.39</v>
+      </c>
+      <c r="I8">
+        <v>0.45</v>
+      </c>
+      <c r="J8">
+        <v>0.14</v>
+      </c>
+      <c r="K8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>122.9626083453766</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>184.4439125180649</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0.44</v>
+      </c>
+      <c r="J9">
+        <v>0.19</v>
+      </c>
+      <c r="K9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>217.7285845022828</v>
+      </c>
+      <c r="D10">
+        <v>0.00555556</v>
+      </c>
+      <c r="E10">
+        <v>0.00555556</v>
+      </c>
+      <c r="F10">
+        <v>0.01111112</v>
+      </c>
+      <c r="G10">
+        <v>326.5928767534242</v>
+      </c>
+      <c r="H10">
+        <v>0.38</v>
+      </c>
+      <c r="I10">
+        <v>0.41</v>
+      </c>
+      <c r="J10">
+        <v>0.17</v>
+      </c>
+      <c r="K10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>340.6121553362682</v>
+      </c>
+      <c r="D11">
+        <v>0.02222224</v>
+      </c>
+      <c r="E11">
+        <v>0.02222224</v>
+      </c>
+      <c r="F11">
+        <v>0.04444448</v>
+      </c>
+      <c r="G11">
+        <v>510.9182330044023</v>
+      </c>
+      <c r="H11">
+        <v>0.38</v>
+      </c>
+      <c r="I11">
+        <v>0.47</v>
+      </c>
+      <c r="J11">
+        <v>0.18</v>
+      </c>
+      <c r="K11">
+        <v>0.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,6 +789,181 @@
         <v>0.39</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>428.3635523572899</v>
+      </c>
+      <c r="D12">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.17222236</v>
+      </c>
+      <c r="G12">
+        <v>642.5453285359349</v>
+      </c>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <v>0.45</v>
+      </c>
+      <c r="J12">
+        <v>0.12</v>
+      </c>
+      <c r="K12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>498.7069374946091</v>
+      </c>
+      <c r="D13">
+        <v>0.10000008</v>
+      </c>
+      <c r="E13">
+        <v>0.10000008</v>
+      </c>
+      <c r="F13">
+        <v>0.20000016</v>
+      </c>
+      <c r="G13">
+        <v>748.0604062419137</v>
+      </c>
+      <c r="H13">
+        <v>0.34</v>
+      </c>
+      <c r="I13">
+        <v>0.42</v>
+      </c>
+      <c r="J13">
+        <v>0.14</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>508.3495138842192</v>
+      </c>
+      <c r="D14">
+        <v>0.11944454</v>
+      </c>
+      <c r="E14">
+        <v>0.11944454</v>
+      </c>
+      <c r="F14">
+        <v>0.23888908</v>
+      </c>
+      <c r="G14">
+        <v>762.5242708263288</v>
+      </c>
+      <c r="H14">
+        <v>0.35</v>
+      </c>
+      <c r="I14">
+        <v>0.48</v>
+      </c>
+      <c r="J14">
+        <v>0.12</v>
+      </c>
+      <c r="K14">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>425.5577207029365</v>
+      </c>
+      <c r="D15">
+        <v>0.10277786</v>
+      </c>
+      <c r="E15">
+        <v>0.10277786</v>
+      </c>
+      <c r="F15">
+        <v>0.20555572</v>
+      </c>
+      <c r="G15">
+        <v>638.3365810544047</v>
+      </c>
+      <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="I15">
+        <v>0.45</v>
+      </c>
+      <c r="J15">
+        <v>0.14</v>
+      </c>
+      <c r="K15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>334.7633794933903</v>
+      </c>
+      <c r="D16">
+        <v>0.0416667</v>
+      </c>
+      <c r="E16">
+        <v>0.0416667</v>
+      </c>
+      <c r="F16">
+        <v>0.0833334</v>
+      </c>
+      <c r="G16">
+        <v>502.1450692400854</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16">
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <v>0.11</v>
+      </c>
+      <c r="K16">
+        <v>0.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,6 +964,1196 @@
         <v>0.37</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>286.7480913238156</v>
+      </c>
+      <c r="D17">
+        <v>0.0138889</v>
+      </c>
+      <c r="E17">
+        <v>0.0138889</v>
+      </c>
+      <c r="F17">
+        <v>0.0277778</v>
+      </c>
+      <c r="G17">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="H17">
+        <v>0.33</v>
+      </c>
+      <c r="I17">
+        <v>0.49</v>
+      </c>
+      <c r="J17">
+        <v>0.12</v>
+      </c>
+      <c r="K17">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>393.6068067234295</v>
+      </c>
+      <c r="H18">
+        <v>0.39</v>
+      </c>
+      <c r="I18">
+        <v>0.46</v>
+      </c>
+      <c r="J18">
+        <v>0.14</v>
+      </c>
+      <c r="K18">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="H19">
+        <v>0.37</v>
+      </c>
+      <c r="I19">
+        <v>0.48</v>
+      </c>
+      <c r="J19">
+        <v>0.19</v>
+      </c>
+      <c r="K19">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>384.636049180636</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>576.954073770954</v>
+      </c>
+      <c r="H20">
+        <v>0.35</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="K20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="H21">
+        <v>0.38</v>
+      </c>
+      <c r="I21">
+        <v>0.41</v>
+      </c>
+      <c r="J21">
+        <v>0.17</v>
+      </c>
+      <c r="K21">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="H22">
+        <v>0.35</v>
+      </c>
+      <c r="I22">
+        <v>0.49</v>
+      </c>
+      <c r="J22">
+        <v>0.16</v>
+      </c>
+      <c r="K22">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
+      </c>
+      <c r="J23">
+        <v>0.19</v>
+      </c>
+      <c r="K23">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="H24">
+        <v>0.39</v>
+      </c>
+      <c r="I24">
+        <v>0.41</v>
+      </c>
+      <c r="J24">
+        <v>0.14</v>
+      </c>
+      <c r="K24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="H25">
+        <v>0.32</v>
+      </c>
+      <c r="I25">
+        <v>0.45</v>
+      </c>
+      <c r="J25">
+        <v>0.18</v>
+      </c>
+      <c r="K25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>165.1488800499209</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>247.7233200748814</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+      <c r="I26">
+        <v>0.48</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="H27">
+        <v>0.37</v>
+      </c>
+      <c r="I27">
+        <v>0.46</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>103.6774555661557</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="H28">
+        <v>0.38</v>
+      </c>
+      <c r="I28">
+        <v>0.48</v>
+      </c>
+      <c r="J28">
+        <v>0.19</v>
+      </c>
+      <c r="K28">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>97.78916096758275</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <v>0.43</v>
+      </c>
+      <c r="J29">
+        <v>0.14</v>
+      </c>
+      <c r="K29">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>94.78573553475324</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+      <c r="I30">
+        <v>0.49</v>
+      </c>
+      <c r="J30">
+        <v>0.14</v>
+      </c>
+      <c r="K30">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>98.71785172641819</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="H31">
+        <v>0.37</v>
+      </c>
+      <c r="I31">
+        <v>0.46</v>
+      </c>
+      <c r="J31">
+        <v>0.15</v>
+      </c>
+      <c r="K31">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>130.7873219730109</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>196.1809829595164</v>
+      </c>
+      <c r="H32">
+        <v>0.37</v>
+      </c>
+      <c r="I32">
+        <v>0.49</v>
+      </c>
+      <c r="J32">
+        <v>0.13</v>
+      </c>
+      <c r="K32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>201.8420447128433</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>302.7630670692649</v>
+      </c>
+      <c r="H33">
+        <v>0.37</v>
+      </c>
+      <c r="I33">
+        <v>0.46</v>
+      </c>
+      <c r="J33">
+        <v>0.19</v>
+      </c>
+      <c r="K33">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>294.8296768634683</v>
+      </c>
+      <c r="D34">
+        <v>0.00277778</v>
+      </c>
+      <c r="E34">
+        <v>0.00277778</v>
+      </c>
+      <c r="F34">
+        <v>0.00555556</v>
+      </c>
+      <c r="G34">
+        <v>442.2445152952025</v>
+      </c>
+      <c r="H34">
+        <v>0.34</v>
+      </c>
+      <c r="I34">
+        <v>0.46</v>
+      </c>
+      <c r="J34">
+        <v>0.18</v>
+      </c>
+      <c r="K34">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>349.0296502993302</v>
+      </c>
+      <c r="D35">
+        <v>0.0138889</v>
+      </c>
+      <c r="E35">
+        <v>0.0138889</v>
+      </c>
+      <c r="F35">
+        <v>0.0277778</v>
+      </c>
+      <c r="G35">
+        <v>523.5444754489954</v>
+      </c>
+      <c r="H35">
+        <v>0.39</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>0.15</v>
+      </c>
+      <c r="K35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>364.1653337305623</v>
+      </c>
+      <c r="D36">
+        <v>0.03055558</v>
+      </c>
+      <c r="E36">
+        <v>0.03055558</v>
+      </c>
+      <c r="F36">
+        <v>0.06111116</v>
+      </c>
+      <c r="G36">
+        <v>546.2480005958435</v>
+      </c>
+      <c r="H36">
+        <v>0.38</v>
+      </c>
+      <c r="I36">
+        <v>0.43</v>
+      </c>
+      <c r="J36">
+        <v>0.11</v>
+      </c>
+      <c r="K36">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>381.7906987705871</v>
+      </c>
+      <c r="D37">
+        <v>0.05833338</v>
+      </c>
+      <c r="E37">
+        <v>0.05833338</v>
+      </c>
+      <c r="F37">
+        <v>0.11666676</v>
+      </c>
+      <c r="G37">
+        <v>572.6860481558806</v>
+      </c>
+      <c r="H37">
+        <v>0.37</v>
+      </c>
+      <c r="I37">
+        <v>0.49</v>
+      </c>
+      <c r="J37">
+        <v>0.12</v>
+      </c>
+      <c r="K37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>410.3627591381613</v>
+      </c>
+      <c r="D38">
+        <v>0.07777784</v>
+      </c>
+      <c r="E38">
+        <v>0.07777784</v>
+      </c>
+      <c r="F38">
+        <v>0.15555568</v>
+      </c>
+      <c r="G38">
+        <v>615.5441387072419</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>0.46</v>
+      </c>
+      <c r="J38">
+        <v>0.19</v>
+      </c>
+      <c r="K38">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>408.4460994869478</v>
+      </c>
+      <c r="D39">
+        <v>0.07222228</v>
+      </c>
+      <c r="E39">
+        <v>0.07222228</v>
+      </c>
+      <c r="F39">
+        <v>0.14444456</v>
+      </c>
+      <c r="G39">
+        <v>612.6691492304217</v>
+      </c>
+      <c r="H39">
+        <v>0.33</v>
+      </c>
+      <c r="I39">
+        <v>0.45</v>
+      </c>
+      <c r="J39">
+        <v>0.11</v>
+      </c>
+      <c r="K39">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>377.9573794681603</v>
+      </c>
+      <c r="D40">
+        <v>0.0555556</v>
+      </c>
+      <c r="E40">
+        <v>0.0555556</v>
+      </c>
+      <c r="F40">
+        <v>0.1111112</v>
+      </c>
+      <c r="G40">
+        <v>566.9360692022404</v>
+      </c>
+      <c r="H40">
+        <v>0.37</v>
+      </c>
+      <c r="I40">
+        <v>0.48</v>
+      </c>
+      <c r="J40">
+        <v>0.14</v>
+      </c>
+      <c r="K40">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>354.1473291618483</v>
+      </c>
+      <c r="D41">
+        <v>0.01111112</v>
+      </c>
+      <c r="E41">
+        <v>0.01111112</v>
+      </c>
+      <c r="F41">
+        <v>0.02222224</v>
+      </c>
+      <c r="G41">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="H41">
+        <v>0.31</v>
+      </c>
+      <c r="I41">
+        <v>0.44</v>
+      </c>
+      <c r="J41">
+        <v>0.18</v>
+      </c>
+      <c r="K41">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>356.5382138814032</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="H42">
+        <v>0.33</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.12</v>
+      </c>
+      <c r="K42">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>444.5860015701382</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>666.8790023552073</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0.45</v>
+      </c>
+      <c r="J43">
+        <v>0.15</v>
+      </c>
+      <c r="K43">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>515.7790399549028</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>773.6685599323542</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44">
+        <v>0.48</v>
+      </c>
+      <c r="J44">
+        <v>0.19</v>
+      </c>
+      <c r="K44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>517.557383961184</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>776.336075941776</v>
+      </c>
+      <c r="H45">
+        <v>0.35</v>
+      </c>
+      <c r="I45">
+        <v>0.43</v>
+      </c>
+      <c r="J45">
+        <v>0.19</v>
+      </c>
+      <c r="K45">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>423.5225047846375</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>635.2837571769562</v>
+      </c>
+      <c r="H46">
+        <v>0.38</v>
+      </c>
+      <c r="I46">
+        <v>0.46</v>
+      </c>
+      <c r="J46">
+        <v>0.11</v>
+      </c>
+      <c r="K46">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="H47">
+        <v>0.38</v>
+      </c>
+      <c r="I47">
+        <v>0.44</v>
+      </c>
+      <c r="J47">
+        <v>0.11</v>
+      </c>
+      <c r="K47">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>301.7454591101147</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="H48">
+        <v>0.34</v>
+      </c>
+      <c r="I48">
+        <v>0.4</v>
+      </c>
+      <c r="J48">
+        <v>0.2</v>
+      </c>
+      <c r="K48">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="H49">
+        <v>0.32</v>
+      </c>
+      <c r="I49">
+        <v>0.42</v>
+      </c>
+      <c r="J49">
+        <v>0.2</v>
+      </c>
+      <c r="K49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="H50">
+        <v>0.34</v>
+      </c>
+      <c r="I50">
+        <v>0.48</v>
+      </c>
+      <c r="J50">
+        <v>0.18</v>
+      </c>
+      <c r="K50">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>HOURS</t>
   </si>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t>param_Q_to_demand2</t>
+  </si>
+  <si>
+    <t>param_net2_cost_buy_electric</t>
+  </si>
+  <si>
+    <t>param_net2_cost_sell_electric</t>
+  </si>
+  <si>
+    <t>param_net2_cost_buy_thermal</t>
+  </si>
+  <si>
+    <t>param_net2_cost_sell_thermal</t>
+  </si>
+  <si>
+    <t>param_E_pv2_solar</t>
+  </si>
+  <si>
+    <t>param_E_solar_th2_solar</t>
+  </si>
+  <si>
+    <t>param_E_pvt2_solar</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
   </si>
 </sst>
 </file>
@@ -407,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +477,35 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -491,8 +545,35 @@
       <c r="M2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2">
+        <v>0.3</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
+      <c r="R2">
+        <v>0.12</v>
+      </c>
+      <c r="S2">
+        <v>0.12</v>
+      </c>
+      <c r="T2">
+        <v>0.12</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,8 +613,35 @@
       <c r="M3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.4</v>
+      </c>
+      <c r="O3">
+        <v>0.3</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <v>0.12</v>
+      </c>
+      <c r="S3">
+        <v>0.12</v>
+      </c>
+      <c r="T3">
+        <v>0.12</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -573,8 +681,35 @@
       <c r="M4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>0.3</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+      <c r="R4">
+        <v>0.12</v>
+      </c>
+      <c r="S4">
+        <v>0.12</v>
+      </c>
+      <c r="T4">
+        <v>0.12</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -614,8 +749,35 @@
       <c r="M5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.4</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0.12</v>
+      </c>
+      <c r="S5">
+        <v>0.12</v>
+      </c>
+      <c r="T5">
+        <v>0.12</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -655,8 +817,35 @@
       <c r="M6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.4</v>
+      </c>
+      <c r="O6">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <v>0.12</v>
+      </c>
+      <c r="S6">
+        <v>0.12</v>
+      </c>
+      <c r="T6">
+        <v>0.12</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -696,8 +885,35 @@
       <c r="M7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <v>0.3</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.1</v>
+      </c>
+      <c r="R7">
+        <v>0.12</v>
+      </c>
+      <c r="S7">
+        <v>0.12</v>
+      </c>
+      <c r="T7">
+        <v>0.12</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -737,8 +953,35 @@
       <c r="M8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.4</v>
+      </c>
+      <c r="O8">
+        <v>0.3</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>0.1</v>
+      </c>
+      <c r="R8">
+        <v>0.12</v>
+      </c>
+      <c r="S8">
+        <v>0.12</v>
+      </c>
+      <c r="T8">
+        <v>0.12</v>
+      </c>
+      <c r="U8">
+        <v>117.6414861111111</v>
+      </c>
+      <c r="V8">
+        <v>115.7739305555556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -778,8 +1021,35 @@
       <c r="M9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.4</v>
+      </c>
+      <c r="O9">
+        <v>0.3</v>
+      </c>
+      <c r="P9">
+        <v>0.2</v>
+      </c>
+      <c r="Q9">
+        <v>0.1</v>
+      </c>
+      <c r="R9">
+        <v>0.12</v>
+      </c>
+      <c r="S9">
+        <v>0.12</v>
+      </c>
+      <c r="T9">
+        <v>0.12</v>
+      </c>
+      <c r="U9">
+        <v>102.52</v>
+      </c>
+      <c r="V9">
+        <v>103.0808472222223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -819,8 +1089,35 @@
       <c r="M10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.4</v>
+      </c>
+      <c r="O10">
+        <v>0.3</v>
+      </c>
+      <c r="P10">
+        <v>0.2</v>
+      </c>
+      <c r="Q10">
+        <v>0.1</v>
+      </c>
+      <c r="R10">
+        <v>0.12</v>
+      </c>
+      <c r="S10">
+        <v>0.12</v>
+      </c>
+      <c r="T10">
+        <v>0.12</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -860,8 +1157,35 @@
       <c r="M11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.4</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.1</v>
+      </c>
+      <c r="R11">
+        <v>0.12</v>
+      </c>
+      <c r="S11">
+        <v>0.12</v>
+      </c>
+      <c r="T11">
+        <v>0.12</v>
+      </c>
+      <c r="U11">
+        <v>12.716</v>
+      </c>
+      <c r="V11">
+        <v>61.87500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -901,8 +1225,35 @@
       <c r="M12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.4</v>
+      </c>
+      <c r="O12">
+        <v>0.3</v>
+      </c>
+      <c r="P12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12">
+        <v>0.12</v>
+      </c>
+      <c r="S12">
+        <v>0.12</v>
+      </c>
+      <c r="T12">
+        <v>0.12</v>
+      </c>
+      <c r="U12">
+        <v>164.0831805555556</v>
+      </c>
+      <c r="V12">
+        <v>45.76000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -942,8 +1293,35 @@
       <c r="M13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.4</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <v>0.1</v>
+      </c>
+      <c r="R13">
+        <v>0.12</v>
+      </c>
+      <c r="S13">
+        <v>0.12</v>
+      </c>
+      <c r="T13">
+        <v>0.12</v>
+      </c>
+      <c r="U13">
+        <v>55.75900000000001</v>
+      </c>
+      <c r="V13">
+        <v>124.7627638888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -983,8 +1361,35 @@
       <c r="M14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.4</v>
+      </c>
+      <c r="O14">
+        <v>0.3</v>
+      </c>
+      <c r="P14">
+        <v>0.2</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14">
+        <v>0.12</v>
+      </c>
+      <c r="S14">
+        <v>0.12</v>
+      </c>
+      <c r="T14">
+        <v>0.12</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1024,8 +1429,35 @@
       <c r="M15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.4</v>
+      </c>
+      <c r="O15">
+        <v>0.3</v>
+      </c>
+      <c r="P15">
+        <v>0.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>0.12</v>
+      </c>
+      <c r="S15">
+        <v>0.12</v>
+      </c>
+      <c r="T15">
+        <v>0.12</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1064,6 +1496,2345 @@
       </c>
       <c r="M16">
         <v>1000</v>
+      </c>
+      <c r="N16">
+        <v>0.4</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>0.2</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16">
+        <v>0.12</v>
+      </c>
+      <c r="S16">
+        <v>0.12</v>
+      </c>
+      <c r="T16">
+        <v>0.12</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>109.9978611111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>286.7480913238156</v>
+      </c>
+      <c r="D17">
+        <v>0.0138889</v>
+      </c>
+      <c r="E17">
+        <v>0.0138889</v>
+      </c>
+      <c r="F17">
+        <v>0.0277778</v>
+      </c>
+      <c r="G17">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="H17">
+        <v>0.33</v>
+      </c>
+      <c r="I17">
+        <v>0.49</v>
+      </c>
+      <c r="J17">
+        <v>0.12</v>
+      </c>
+      <c r="K17">
+        <v>0.36</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+      <c r="N17">
+        <v>0.4</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>0.1</v>
+      </c>
+      <c r="R17">
+        <v>0.12</v>
+      </c>
+      <c r="S17">
+        <v>0.12</v>
+      </c>
+      <c r="T17">
+        <v>0.12</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>59.51000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>393.6068067234295</v>
+      </c>
+      <c r="H18">
+        <v>0.39</v>
+      </c>
+      <c r="I18">
+        <v>0.46</v>
+      </c>
+      <c r="J18">
+        <v>0.14</v>
+      </c>
+      <c r="K18">
+        <v>0.39</v>
+      </c>
+      <c r="L18">
+        <v>500</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>0.4</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18">
+        <v>0.2</v>
+      </c>
+      <c r="Q18">
+        <v>0.1</v>
+      </c>
+      <c r="R18">
+        <v>0.12</v>
+      </c>
+      <c r="S18">
+        <v>0.12</v>
+      </c>
+      <c r="T18">
+        <v>0.12</v>
+      </c>
+      <c r="U18">
+        <v>54.30150000000001</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="H19">
+        <v>0.37</v>
+      </c>
+      <c r="I19">
+        <v>0.48</v>
+      </c>
+      <c r="J19">
+        <v>0.19</v>
+      </c>
+      <c r="K19">
+        <v>0.34</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>0.4</v>
+      </c>
+      <c r="O19">
+        <v>0.3</v>
+      </c>
+      <c r="P19">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <v>0.1</v>
+      </c>
+      <c r="R19">
+        <v>0.12</v>
+      </c>
+      <c r="S19">
+        <v>0.12</v>
+      </c>
+      <c r="T19">
+        <v>0.12</v>
+      </c>
+      <c r="U19">
+        <v>71.51084722222225</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>384.636049180636</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>576.954073770954</v>
+      </c>
+      <c r="H20">
+        <v>0.35</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="K20">
+        <v>0.39</v>
+      </c>
+      <c r="L20">
+        <v>500</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>0.4</v>
+      </c>
+      <c r="O20">
+        <v>0.3</v>
+      </c>
+      <c r="P20">
+        <v>0.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.1</v>
+      </c>
+      <c r="R20">
+        <v>0.12</v>
+      </c>
+      <c r="S20">
+        <v>0.12</v>
+      </c>
+      <c r="T20">
+        <v>0.12</v>
+      </c>
+      <c r="U20">
+        <v>105.27</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="H21">
+        <v>0.38</v>
+      </c>
+      <c r="I21">
+        <v>0.41</v>
+      </c>
+      <c r="J21">
+        <v>0.17</v>
+      </c>
+      <c r="K21">
+        <v>0.33</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>0.4</v>
+      </c>
+      <c r="O21">
+        <v>0.3</v>
+      </c>
+      <c r="P21">
+        <v>0.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.1</v>
+      </c>
+      <c r="R21">
+        <v>0.12</v>
+      </c>
+      <c r="S21">
+        <v>0.12</v>
+      </c>
+      <c r="T21">
+        <v>0.12</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="H22">
+        <v>0.35</v>
+      </c>
+      <c r="I22">
+        <v>0.49</v>
+      </c>
+      <c r="J22">
+        <v>0.16</v>
+      </c>
+      <c r="K22">
+        <v>0.37</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
+      <c r="M22">
+        <v>1000</v>
+      </c>
+      <c r="N22">
+        <v>0.4</v>
+      </c>
+      <c r="O22">
+        <v>0.3</v>
+      </c>
+      <c r="P22">
+        <v>0.2</v>
+      </c>
+      <c r="Q22">
+        <v>0.1</v>
+      </c>
+      <c r="R22">
+        <v>0.12</v>
+      </c>
+      <c r="S22">
+        <v>0.12</v>
+      </c>
+      <c r="T22">
+        <v>0.12</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
+      </c>
+      <c r="J23">
+        <v>0.19</v>
+      </c>
+      <c r="K23">
+        <v>0.34</v>
+      </c>
+      <c r="L23">
+        <v>500</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+      <c r="O23">
+        <v>0.3</v>
+      </c>
+      <c r="P23">
+        <v>0.2</v>
+      </c>
+      <c r="Q23">
+        <v>0.1</v>
+      </c>
+      <c r="R23">
+        <v>0.12</v>
+      </c>
+      <c r="S23">
+        <v>0.12</v>
+      </c>
+      <c r="T23">
+        <v>0.12</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="H24">
+        <v>0.39</v>
+      </c>
+      <c r="I24">
+        <v>0.41</v>
+      </c>
+      <c r="J24">
+        <v>0.14</v>
+      </c>
+      <c r="K24">
+        <v>0.3</v>
+      </c>
+      <c r="L24">
+        <v>500</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24">
+        <v>0.4</v>
+      </c>
+      <c r="O24">
+        <v>0.3</v>
+      </c>
+      <c r="P24">
+        <v>0.2</v>
+      </c>
+      <c r="Q24">
+        <v>0.1</v>
+      </c>
+      <c r="R24">
+        <v>0.12</v>
+      </c>
+      <c r="S24">
+        <v>0.12</v>
+      </c>
+      <c r="T24">
+        <v>0.12</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="H25">
+        <v>0.32</v>
+      </c>
+      <c r="I25">
+        <v>0.45</v>
+      </c>
+      <c r="J25">
+        <v>0.18</v>
+      </c>
+      <c r="K25">
+        <v>0.39</v>
+      </c>
+      <c r="L25">
+        <v>500</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>0.4</v>
+      </c>
+      <c r="O25">
+        <v>0.3</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25">
+        <v>0.12</v>
+      </c>
+      <c r="S25">
+        <v>0.12</v>
+      </c>
+      <c r="T25">
+        <v>0.12</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>165.1488800499209</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>247.7233200748814</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+      <c r="I26">
+        <v>0.48</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <v>0.4</v>
+      </c>
+      <c r="L26">
+        <v>500</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26">
+        <v>0.4</v>
+      </c>
+      <c r="O26">
+        <v>0.3</v>
+      </c>
+      <c r="P26">
+        <v>0.2</v>
+      </c>
+      <c r="Q26">
+        <v>0.1</v>
+      </c>
+      <c r="R26">
+        <v>0.12</v>
+      </c>
+      <c r="S26">
+        <v>0.12</v>
+      </c>
+      <c r="T26">
+        <v>0.12</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="H27">
+        <v>0.37</v>
+      </c>
+      <c r="I27">
+        <v>0.46</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>0.33</v>
+      </c>
+      <c r="L27">
+        <v>500</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27">
+        <v>0.4</v>
+      </c>
+      <c r="O27">
+        <v>0.3</v>
+      </c>
+      <c r="P27">
+        <v>0.2</v>
+      </c>
+      <c r="Q27">
+        <v>0.1</v>
+      </c>
+      <c r="R27">
+        <v>0.12</v>
+      </c>
+      <c r="S27">
+        <v>0.12</v>
+      </c>
+      <c r="T27">
+        <v>0.12</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>103.6774555661557</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="H28">
+        <v>0.38</v>
+      </c>
+      <c r="I28">
+        <v>0.48</v>
+      </c>
+      <c r="J28">
+        <v>0.19</v>
+      </c>
+      <c r="K28">
+        <v>0.32</v>
+      </c>
+      <c r="L28">
+        <v>500</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>0.4</v>
+      </c>
+      <c r="O28">
+        <v>0.3</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>0.1</v>
+      </c>
+      <c r="R28">
+        <v>0.12</v>
+      </c>
+      <c r="S28">
+        <v>0.12</v>
+      </c>
+      <c r="T28">
+        <v>0.12</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>97.78916096758275</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <v>0.43</v>
+      </c>
+      <c r="J29">
+        <v>0.14</v>
+      </c>
+      <c r="K29">
+        <v>0.32</v>
+      </c>
+      <c r="L29">
+        <v>500</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>0.4</v>
+      </c>
+      <c r="O29">
+        <v>0.3</v>
+      </c>
+      <c r="P29">
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
+        <v>0.1</v>
+      </c>
+      <c r="R29">
+        <v>0.12</v>
+      </c>
+      <c r="S29">
+        <v>0.12</v>
+      </c>
+      <c r="T29">
+        <v>0.12</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>94.78573553475324</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+      <c r="I30">
+        <v>0.49</v>
+      </c>
+      <c r="J30">
+        <v>0.14</v>
+      </c>
+      <c r="K30">
+        <v>0.39</v>
+      </c>
+      <c r="L30">
+        <v>500</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30">
+        <v>0.4</v>
+      </c>
+      <c r="O30">
+        <v>0.3</v>
+      </c>
+      <c r="P30">
+        <v>0.2</v>
+      </c>
+      <c r="Q30">
+        <v>0.1</v>
+      </c>
+      <c r="R30">
+        <v>0.12</v>
+      </c>
+      <c r="S30">
+        <v>0.12</v>
+      </c>
+      <c r="T30">
+        <v>0.12</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>98.71785172641819</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="H31">
+        <v>0.37</v>
+      </c>
+      <c r="I31">
+        <v>0.46</v>
+      </c>
+      <c r="J31">
+        <v>0.15</v>
+      </c>
+      <c r="K31">
+        <v>0.33</v>
+      </c>
+      <c r="L31">
+        <v>500</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="N31">
+        <v>0.4</v>
+      </c>
+      <c r="O31">
+        <v>0.3</v>
+      </c>
+      <c r="P31">
+        <v>0.2</v>
+      </c>
+      <c r="Q31">
+        <v>0.1</v>
+      </c>
+      <c r="R31">
+        <v>0.12</v>
+      </c>
+      <c r="S31">
+        <v>0.12</v>
+      </c>
+      <c r="T31">
+        <v>0.12</v>
+      </c>
+      <c r="U31">
+        <v>31.68000000000002</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>130.7873219730109</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>196.1809829595164</v>
+      </c>
+      <c r="H32">
+        <v>0.37</v>
+      </c>
+      <c r="I32">
+        <v>0.49</v>
+      </c>
+      <c r="J32">
+        <v>0.13</v>
+      </c>
+      <c r="K32">
+        <v>0.4</v>
+      </c>
+      <c r="L32">
+        <v>500</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32">
+        <v>0.4</v>
+      </c>
+      <c r="O32">
+        <v>0.3</v>
+      </c>
+      <c r="P32">
+        <v>0.2</v>
+      </c>
+      <c r="Q32">
+        <v>0.1</v>
+      </c>
+      <c r="R32">
+        <v>0.12</v>
+      </c>
+      <c r="S32">
+        <v>0.12</v>
+      </c>
+      <c r="T32">
+        <v>0.12</v>
+      </c>
+      <c r="U32">
+        <v>130.3500000000001</v>
+      </c>
+      <c r="V32">
+        <v>129.4055277777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>201.8420447128433</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>302.7630670692649</v>
+      </c>
+      <c r="H33">
+        <v>0.37</v>
+      </c>
+      <c r="I33">
+        <v>0.46</v>
+      </c>
+      <c r="J33">
+        <v>0.19</v>
+      </c>
+      <c r="K33">
+        <v>0.31</v>
+      </c>
+      <c r="L33">
+        <v>500</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>0.4</v>
+      </c>
+      <c r="O33">
+        <v>0.3</v>
+      </c>
+      <c r="P33">
+        <v>0.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.1</v>
+      </c>
+      <c r="R33">
+        <v>0.12</v>
+      </c>
+      <c r="S33">
+        <v>0.12</v>
+      </c>
+      <c r="T33">
+        <v>0.12</v>
+      </c>
+      <c r="U33">
+        <v>87.80200000000002</v>
+      </c>
+      <c r="V33">
+        <v>26.05212500000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>294.8296768634683</v>
+      </c>
+      <c r="D34">
+        <v>0.00277778</v>
+      </c>
+      <c r="E34">
+        <v>0.00277778</v>
+      </c>
+      <c r="F34">
+        <v>0.00555556</v>
+      </c>
+      <c r="G34">
+        <v>442.2445152952025</v>
+      </c>
+      <c r="H34">
+        <v>0.34</v>
+      </c>
+      <c r="I34">
+        <v>0.46</v>
+      </c>
+      <c r="J34">
+        <v>0.18</v>
+      </c>
+      <c r="K34">
+        <v>0.38</v>
+      </c>
+      <c r="L34">
+        <v>500</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34">
+        <v>0.4</v>
+      </c>
+      <c r="O34">
+        <v>0.3</v>
+      </c>
+      <c r="P34">
+        <v>0.2</v>
+      </c>
+      <c r="Q34">
+        <v>0.1</v>
+      </c>
+      <c r="R34">
+        <v>0.12</v>
+      </c>
+      <c r="S34">
+        <v>0.12</v>
+      </c>
+      <c r="T34">
+        <v>0.12</v>
+      </c>
+      <c r="U34">
+        <v>26.05212500000001</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>349.0296502993302</v>
+      </c>
+      <c r="D35">
+        <v>0.0138889</v>
+      </c>
+      <c r="E35">
+        <v>0.0138889</v>
+      </c>
+      <c r="F35">
+        <v>0.0277778</v>
+      </c>
+      <c r="G35">
+        <v>523.5444754489954</v>
+      </c>
+      <c r="H35">
+        <v>0.39</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>0.15</v>
+      </c>
+      <c r="K35">
+        <v>0.4</v>
+      </c>
+      <c r="L35">
+        <v>500</v>
+      </c>
+      <c r="M35">
+        <v>1000</v>
+      </c>
+      <c r="N35">
+        <v>0.4</v>
+      </c>
+      <c r="O35">
+        <v>0.3</v>
+      </c>
+      <c r="P35">
+        <v>0.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.1</v>
+      </c>
+      <c r="R35">
+        <v>0.12</v>
+      </c>
+      <c r="S35">
+        <v>0.12</v>
+      </c>
+      <c r="T35">
+        <v>0.12</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>364.1653337305623</v>
+      </c>
+      <c r="D36">
+        <v>0.03055558</v>
+      </c>
+      <c r="E36">
+        <v>0.03055558</v>
+      </c>
+      <c r="F36">
+        <v>0.06111116</v>
+      </c>
+      <c r="G36">
+        <v>546.2480005958435</v>
+      </c>
+      <c r="H36">
+        <v>0.38</v>
+      </c>
+      <c r="I36">
+        <v>0.43</v>
+      </c>
+      <c r="J36">
+        <v>0.11</v>
+      </c>
+      <c r="K36">
+        <v>0.37</v>
+      </c>
+      <c r="L36">
+        <v>500</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>0.4</v>
+      </c>
+      <c r="O36">
+        <v>0.3</v>
+      </c>
+      <c r="P36">
+        <v>0.2</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="R36">
+        <v>0.12</v>
+      </c>
+      <c r="S36">
+        <v>0.12</v>
+      </c>
+      <c r="T36">
+        <v>0.12</v>
+      </c>
+      <c r="U36">
+        <v>81.09765277777778</v>
+      </c>
+      <c r="V36">
+        <v>50.80212500000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>381.7906987705871</v>
+      </c>
+      <c r="D37">
+        <v>0.05833338</v>
+      </c>
+      <c r="E37">
+        <v>0.05833338</v>
+      </c>
+      <c r="F37">
+        <v>0.11666676</v>
+      </c>
+      <c r="G37">
+        <v>572.6860481558806</v>
+      </c>
+      <c r="H37">
+        <v>0.37</v>
+      </c>
+      <c r="I37">
+        <v>0.49</v>
+      </c>
+      <c r="J37">
+        <v>0.12</v>
+      </c>
+      <c r="K37">
+        <v>0.3</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>0.4</v>
+      </c>
+      <c r="O37">
+        <v>0.3</v>
+      </c>
+      <c r="P37">
+        <v>0.2</v>
+      </c>
+      <c r="Q37">
+        <v>0.1</v>
+      </c>
+      <c r="R37">
+        <v>0.12</v>
+      </c>
+      <c r="S37">
+        <v>0.12</v>
+      </c>
+      <c r="T37">
+        <v>0.12</v>
+      </c>
+      <c r="U37">
+        <v>111.199</v>
+      </c>
+      <c r="V37">
+        <v>112.3148888888889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>410.3627591381613</v>
+      </c>
+      <c r="D38">
+        <v>0.07777784</v>
+      </c>
+      <c r="E38">
+        <v>0.07777784</v>
+      </c>
+      <c r="F38">
+        <v>0.15555568</v>
+      </c>
+      <c r="G38">
+        <v>615.5441387072419</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>0.46</v>
+      </c>
+      <c r="J38">
+        <v>0.19</v>
+      </c>
+      <c r="K38">
+        <v>0.33</v>
+      </c>
+      <c r="L38">
+        <v>500</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>0.4</v>
+      </c>
+      <c r="O38">
+        <v>0.3</v>
+      </c>
+      <c r="P38">
+        <v>0.2</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="R38">
+        <v>0.12</v>
+      </c>
+      <c r="S38">
+        <v>0.12</v>
+      </c>
+      <c r="T38">
+        <v>0.12</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>408.4460994869478</v>
+      </c>
+      <c r="D39">
+        <v>0.07222228</v>
+      </c>
+      <c r="E39">
+        <v>0.07222228</v>
+      </c>
+      <c r="F39">
+        <v>0.14444456</v>
+      </c>
+      <c r="G39">
+        <v>612.6691492304217</v>
+      </c>
+      <c r="H39">
+        <v>0.33</v>
+      </c>
+      <c r="I39">
+        <v>0.45</v>
+      </c>
+      <c r="J39">
+        <v>0.11</v>
+      </c>
+      <c r="K39">
+        <v>0.32</v>
+      </c>
+      <c r="L39">
+        <v>500</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>0.4</v>
+      </c>
+      <c r="O39">
+        <v>0.3</v>
+      </c>
+      <c r="P39">
+        <v>0.2</v>
+      </c>
+      <c r="Q39">
+        <v>0.1</v>
+      </c>
+      <c r="R39">
+        <v>0.12</v>
+      </c>
+      <c r="S39">
+        <v>0.12</v>
+      </c>
+      <c r="T39">
+        <v>0.12</v>
+      </c>
+      <c r="U39">
+        <v>28.71000000000001</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>377.9573794681603</v>
+      </c>
+      <c r="D40">
+        <v>0.0555556</v>
+      </c>
+      <c r="E40">
+        <v>0.0555556</v>
+      </c>
+      <c r="F40">
+        <v>0.1111112</v>
+      </c>
+      <c r="G40">
+        <v>566.9360692022404</v>
+      </c>
+      <c r="H40">
+        <v>0.37</v>
+      </c>
+      <c r="I40">
+        <v>0.48</v>
+      </c>
+      <c r="J40">
+        <v>0.14</v>
+      </c>
+      <c r="K40">
+        <v>0.33</v>
+      </c>
+      <c r="L40">
+        <v>500</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>0.4</v>
+      </c>
+      <c r="O40">
+        <v>0.3</v>
+      </c>
+      <c r="P40">
+        <v>0.2</v>
+      </c>
+      <c r="Q40">
+        <v>0.1</v>
+      </c>
+      <c r="R40">
+        <v>0.12</v>
+      </c>
+      <c r="S40">
+        <v>0.12</v>
+      </c>
+      <c r="T40">
+        <v>0.12</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>76.82400000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>354.1473291618483</v>
+      </c>
+      <c r="D41">
+        <v>0.01111112</v>
+      </c>
+      <c r="E41">
+        <v>0.01111112</v>
+      </c>
+      <c r="F41">
+        <v>0.02222224</v>
+      </c>
+      <c r="G41">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="H41">
+        <v>0.31</v>
+      </c>
+      <c r="I41">
+        <v>0.44</v>
+      </c>
+      <c r="J41">
+        <v>0.18</v>
+      </c>
+      <c r="K41">
+        <v>0.32</v>
+      </c>
+      <c r="L41">
+        <v>500</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="N41">
+        <v>0.4</v>
+      </c>
+      <c r="O41">
+        <v>0.3</v>
+      </c>
+      <c r="P41">
+        <v>0.2</v>
+      </c>
+      <c r="Q41">
+        <v>0.1</v>
+      </c>
+      <c r="R41">
+        <v>0.12</v>
+      </c>
+      <c r="S41">
+        <v>0.12</v>
+      </c>
+      <c r="T41">
+        <v>0.12</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>56.41212500000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>356.5382138814032</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="H42">
+        <v>0.33</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.12</v>
+      </c>
+      <c r="K42">
+        <v>0.36</v>
+      </c>
+      <c r="L42">
+        <v>500</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42">
+        <v>0.4</v>
+      </c>
+      <c r="O42">
+        <v>0.3</v>
+      </c>
+      <c r="P42">
+        <v>0.2</v>
+      </c>
+      <c r="Q42">
+        <v>0.1</v>
+      </c>
+      <c r="R42">
+        <v>0.12</v>
+      </c>
+      <c r="S42">
+        <v>0.12</v>
+      </c>
+      <c r="T42">
+        <v>0.12</v>
+      </c>
+      <c r="U42">
+        <v>24.42000000000001</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>444.5860015701382</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>666.8790023552073</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0.45</v>
+      </c>
+      <c r="J43">
+        <v>0.15</v>
+      </c>
+      <c r="K43">
+        <v>0.35</v>
+      </c>
+      <c r="L43">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="N43">
+        <v>0.4</v>
+      </c>
+      <c r="O43">
+        <v>0.3</v>
+      </c>
+      <c r="P43">
+        <v>0.2</v>
+      </c>
+      <c r="Q43">
+        <v>0.1</v>
+      </c>
+      <c r="R43">
+        <v>0.12</v>
+      </c>
+      <c r="S43">
+        <v>0.12</v>
+      </c>
+      <c r="T43">
+        <v>0.12</v>
+      </c>
+      <c r="U43">
+        <v>176.9913750000001</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>515.7790399549028</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>773.6685599323542</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44">
+        <v>0.48</v>
+      </c>
+      <c r="J44">
+        <v>0.19</v>
+      </c>
+      <c r="K44">
+        <v>0.4</v>
+      </c>
+      <c r="L44">
+        <v>500</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>0.4</v>
+      </c>
+      <c r="O44">
+        <v>0.3</v>
+      </c>
+      <c r="P44">
+        <v>0.2</v>
+      </c>
+      <c r="Q44">
+        <v>0.1</v>
+      </c>
+      <c r="R44">
+        <v>0.12</v>
+      </c>
+      <c r="S44">
+        <v>0.12</v>
+      </c>
+      <c r="T44">
+        <v>0.12</v>
+      </c>
+      <c r="U44">
+        <v>77.48552777777779</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>517.557383961184</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>776.336075941776</v>
+      </c>
+      <c r="H45">
+        <v>0.35</v>
+      </c>
+      <c r="I45">
+        <v>0.43</v>
+      </c>
+      <c r="J45">
+        <v>0.19</v>
+      </c>
+      <c r="K45">
+        <v>0.39</v>
+      </c>
+      <c r="L45">
+        <v>500</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>0.4</v>
+      </c>
+      <c r="O45">
+        <v>0.3</v>
+      </c>
+      <c r="P45">
+        <v>0.2</v>
+      </c>
+      <c r="Q45">
+        <v>0.1</v>
+      </c>
+      <c r="R45">
+        <v>0.12</v>
+      </c>
+      <c r="S45">
+        <v>0.12</v>
+      </c>
+      <c r="T45">
+        <v>0.12</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>423.5225047846375</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>635.2837571769562</v>
+      </c>
+      <c r="H46">
+        <v>0.38</v>
+      </c>
+      <c r="I46">
+        <v>0.46</v>
+      </c>
+      <c r="J46">
+        <v>0.11</v>
+      </c>
+      <c r="K46">
+        <v>0.31</v>
+      </c>
+      <c r="L46">
+        <v>500</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>0.4</v>
+      </c>
+      <c r="O46">
+        <v>0.3</v>
+      </c>
+      <c r="P46">
+        <v>0.2</v>
+      </c>
+      <c r="Q46">
+        <v>0.1</v>
+      </c>
+      <c r="R46">
+        <v>0.12</v>
+      </c>
+      <c r="S46">
+        <v>0.12</v>
+      </c>
+      <c r="T46">
+        <v>0.12</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="H47">
+        <v>0.38</v>
+      </c>
+      <c r="I47">
+        <v>0.44</v>
+      </c>
+      <c r="J47">
+        <v>0.11</v>
+      </c>
+      <c r="K47">
+        <v>0.35</v>
+      </c>
+      <c r="L47">
+        <v>500</v>
+      </c>
+      <c r="M47">
+        <v>1000</v>
+      </c>
+      <c r="N47">
+        <v>0.4</v>
+      </c>
+      <c r="O47">
+        <v>0.3</v>
+      </c>
+      <c r="P47">
+        <v>0.2</v>
+      </c>
+      <c r="Q47">
+        <v>0.1</v>
+      </c>
+      <c r="R47">
+        <v>0.12</v>
+      </c>
+      <c r="S47">
+        <v>0.12</v>
+      </c>
+      <c r="T47">
+        <v>0.12</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>301.7454591101147</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="H48">
+        <v>0.34</v>
+      </c>
+      <c r="I48">
+        <v>0.4</v>
+      </c>
+      <c r="J48">
+        <v>0.2</v>
+      </c>
+      <c r="K48">
+        <v>0.3</v>
+      </c>
+      <c r="L48">
+        <v>500</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="N48">
+        <v>0.4</v>
+      </c>
+      <c r="O48">
+        <v>0.3</v>
+      </c>
+      <c r="P48">
+        <v>0.2</v>
+      </c>
+      <c r="Q48">
+        <v>0.1</v>
+      </c>
+      <c r="R48">
+        <v>0.12</v>
+      </c>
+      <c r="S48">
+        <v>0.12</v>
+      </c>
+      <c r="T48">
+        <v>0.12</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="H49">
+        <v>0.32</v>
+      </c>
+      <c r="I49">
+        <v>0.42</v>
+      </c>
+      <c r="J49">
+        <v>0.2</v>
+      </c>
+      <c r="K49">
+        <v>0.3</v>
+      </c>
+      <c r="L49">
+        <v>500</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>0.4</v>
+      </c>
+      <c r="O49">
+        <v>0.3</v>
+      </c>
+      <c r="P49">
+        <v>0.2</v>
+      </c>
+      <c r="Q49">
+        <v>0.1</v>
+      </c>
+      <c r="R49">
+        <v>0.12</v>
+      </c>
+      <c r="S49">
+        <v>0.12</v>
+      </c>
+      <c r="T49">
+        <v>0.12</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="H50">
+        <v>0.34</v>
+      </c>
+      <c r="I50">
+        <v>0.48</v>
+      </c>
+      <c r="J50">
+        <v>0.18</v>
+      </c>
+      <c r="K50">
+        <v>0.35</v>
+      </c>
+      <c r="L50">
+        <v>500</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>0.4</v>
+      </c>
+      <c r="O50">
+        <v>0.3</v>
+      </c>
+      <c r="P50">
+        <v>0.2</v>
+      </c>
+      <c r="Q50">
+        <v>0.1</v>
+      </c>
+      <c r="R50">
+        <v>0.12</v>
+      </c>
+      <c r="S50">
+        <v>0.12</v>
+      </c>
+      <c r="T50">
+        <v>0.12</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HOURS</t>
   </si>
@@ -73,10 +73,13 @@
     <t>param_E_pvt2_solar</t>
   </si>
   <si>
-    <t>param_P_to_charging_station1</t>
+    <t>param_P_to_charging_station2</t>
   </si>
   <si>
-    <t>param_P_to_charging_station2</t>
+    <t>param_E_pv3_solar</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
   </si>
 </sst>
 </file>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +507,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -570,10 +576,13 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -638,10 +647,13 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -706,10 +718,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -774,10 +789,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -842,10 +860,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -907,13 +928,16 @@
         <v>0.12</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>15.84000000000001</v>
       </c>
       <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W7">
+        <v>26.60808333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -975,13 +999,16 @@
         <v>0.12</v>
       </c>
       <c r="U8">
-        <v>117.6414861111111</v>
+        <v>72.63712500000004</v>
       </c>
       <c r="V8">
-        <v>115.7739305555556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W8">
+        <v>67.93600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1043,13 +1070,16 @@
         <v>0.12</v>
       </c>
       <c r="U9">
-        <v>102.52</v>
+        <v>101.3138194444444</v>
       </c>
       <c r="V9">
-        <v>103.0808472222223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W9">
+        <v>75.17216666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,10 +1144,13 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1179,13 +1212,16 @@
         <v>0.12</v>
       </c>
       <c r="U11">
-        <v>12.716</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>61.87500000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1247,13 +1283,16 @@
         <v>0.12</v>
       </c>
       <c r="U12">
-        <v>164.0831805555556</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>45.76000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W12">
+        <v>144.3644583333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1315,13 +1354,16 @@
         <v>0.12</v>
       </c>
       <c r="U13">
-        <v>55.75900000000001</v>
+        <v>106.8478888888889</v>
       </c>
       <c r="V13">
-        <v>124.7627638888889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W13">
+        <v>33.96204166666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1383,13 +1425,16 @@
         <v>0.12</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>22.44000000000001</v>
       </c>
       <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1451,13 +1496,16 @@
         <v>0.12</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>38.50000000000002</v>
       </c>
       <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1519,13 +1567,16 @@
         <v>0.12</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>75.26169444444447</v>
       </c>
       <c r="V16">
-        <v>109.9978611111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1587,13 +1638,16 @@
         <v>0.12</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="V17">
-        <v>59.51000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W17">
+        <v>136.6308472222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1655,13 +1709,16 @@
         <v>0.12</v>
       </c>
       <c r="U18">
-        <v>54.30150000000001</v>
+        <v>31.84148611111112</v>
       </c>
       <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W18">
+        <v>77.6505277777778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1723,13 +1780,16 @@
         <v>0.12</v>
       </c>
       <c r="U19">
-        <v>71.51084722222225</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W19">
+        <v>95.36648611111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1791,13 +1851,16 @@
         <v>0.12</v>
       </c>
       <c r="U20">
-        <v>105.27</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1862,10 +1925,13 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1930,10 +1996,13 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1998,10 +2067,13 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2066,10 +2138,13 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2134,10 +2209,13 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2202,10 +2280,13 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2270,10 +2351,13 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2338,10 +2422,13 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2406,10 +2493,13 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2474,10 +2564,13 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2539,13 +2632,16 @@
         <v>0.12</v>
       </c>
       <c r="U31">
-        <v>31.68000000000002</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2607,13 +2703,16 @@
         <v>0.12</v>
       </c>
       <c r="U32">
-        <v>130.3500000000001</v>
+        <v>88.8306527777778</v>
       </c>
       <c r="V32">
-        <v>129.4055277777778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W32">
+        <v>157.0561666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2675,13 +2774,16 @@
         <v>0.12</v>
       </c>
       <c r="U33">
-        <v>87.80200000000002</v>
+        <v>103.3040555555556</v>
       </c>
       <c r="V33">
-        <v>26.05212500000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W33">
+        <v>95.70000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2743,13 +2845,16 @@
         <v>0.12</v>
       </c>
       <c r="U34">
-        <v>26.05212500000001</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W34">
+        <v>66.5776527777778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2814,10 +2919,13 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2879,13 +2987,16 @@
         <v>0.12</v>
       </c>
       <c r="U36">
-        <v>81.09765277777778</v>
+        <v>52.96148611111114</v>
       </c>
       <c r="V36">
-        <v>50.80212500000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W36">
+        <v>125.345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2947,13 +3058,16 @@
         <v>0.12</v>
       </c>
       <c r="U37">
-        <v>111.199</v>
+        <v>93.50488888888891</v>
       </c>
       <c r="V37">
-        <v>112.3148888888889</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W37">
+        <v>70.40000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3018,10 +3132,13 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3083,13 +3200,16 @@
         <v>0.12</v>
       </c>
       <c r="U39">
-        <v>28.71000000000001</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3151,13 +3271,16 @@
         <v>0.12</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>88.50600000000003</v>
       </c>
       <c r="V40">
-        <v>76.82400000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3219,13 +3342,16 @@
         <v>0.12</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>67.26270833333335</v>
       </c>
       <c r="V41">
-        <v>56.41212500000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W41">
+        <v>62.45250000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3287,13 +3413,16 @@
         <v>0.12</v>
       </c>
       <c r="U42">
-        <v>24.42000000000001</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3355,13 +3484,16 @@
         <v>0.12</v>
       </c>
       <c r="U43">
-        <v>176.9913750000001</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W43">
+        <v>188.156375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3423,13 +3555,16 @@
         <v>0.12</v>
       </c>
       <c r="U44">
-        <v>77.48552777777779</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W44">
+        <v>14.52000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3494,10 +3629,13 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3562,10 +3700,13 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3630,10 +3771,13 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3698,10 +3842,13 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3766,10 +3913,13 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>0.12</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3834,6 +3984,9 @@
         <v>0</v>
       </c>
       <c r="V50">
+        <v>0.12</v>
+      </c>
+      <c r="W50">
         <v>0</v>
       </c>
     </row>

--- a/output/teste/df_split0.xlsx
+++ b/output/teste/df_split0.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,6 +1576,7706 @@
         <v>109.395</v>
       </c>
     </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>286.7480913238156</v>
+      </c>
+      <c r="D17">
+        <v>0.0138889</v>
+      </c>
+      <c r="E17">
+        <v>0.0138889</v>
+      </c>
+      <c r="F17">
+        <v>0.0277778</v>
+      </c>
+      <c r="G17">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="H17">
+        <v>0.33</v>
+      </c>
+      <c r="I17">
+        <v>0.49</v>
+      </c>
+      <c r="J17">
+        <v>0.12</v>
+      </c>
+      <c r="K17">
+        <v>0.36</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+      <c r="N17">
+        <v>0.4</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>0.1</v>
+      </c>
+      <c r="R17">
+        <v>0.12</v>
+      </c>
+      <c r="S17">
+        <v>0.12</v>
+      </c>
+      <c r="T17">
+        <v>0.12</v>
+      </c>
+      <c r="U17">
+        <v>0.12</v>
+      </c>
+      <c r="V17">
+        <v>59.89148611111113</v>
+      </c>
+      <c r="W17">
+        <v>49.33500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>393.6068067234295</v>
+      </c>
+      <c r="H18">
+        <v>0.39</v>
+      </c>
+      <c r="I18">
+        <v>0.46</v>
+      </c>
+      <c r="J18">
+        <v>0.14</v>
+      </c>
+      <c r="K18">
+        <v>0.39</v>
+      </c>
+      <c r="L18">
+        <v>500</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>0.4</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18">
+        <v>0.2</v>
+      </c>
+      <c r="Q18">
+        <v>0.1</v>
+      </c>
+      <c r="R18">
+        <v>0.12</v>
+      </c>
+      <c r="S18">
+        <v>0.12</v>
+      </c>
+      <c r="T18">
+        <v>0.12</v>
+      </c>
+      <c r="U18">
+        <v>0.12</v>
+      </c>
+      <c r="V18">
+        <v>54.11648611111113</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="H19">
+        <v>0.37</v>
+      </c>
+      <c r="I19">
+        <v>0.48</v>
+      </c>
+      <c r="J19">
+        <v>0.19</v>
+      </c>
+      <c r="K19">
+        <v>0.34</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>0.4</v>
+      </c>
+      <c r="O19">
+        <v>0.3</v>
+      </c>
+      <c r="P19">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <v>0.1</v>
+      </c>
+      <c r="R19">
+        <v>0.12</v>
+      </c>
+      <c r="S19">
+        <v>0.12</v>
+      </c>
+      <c r="T19">
+        <v>0.12</v>
+      </c>
+      <c r="U19">
+        <v>0.12</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>384.636049180636</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>576.954073770954</v>
+      </c>
+      <c r="H20">
+        <v>0.35</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="K20">
+        <v>0.39</v>
+      </c>
+      <c r="L20">
+        <v>500</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>0.4</v>
+      </c>
+      <c r="O20">
+        <v>0.3</v>
+      </c>
+      <c r="P20">
+        <v>0.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.1</v>
+      </c>
+      <c r="R20">
+        <v>0.12</v>
+      </c>
+      <c r="S20">
+        <v>0.12</v>
+      </c>
+      <c r="T20">
+        <v>0.12</v>
+      </c>
+      <c r="U20">
+        <v>0.12</v>
+      </c>
+      <c r="V20">
+        <v>71.51084722222224</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="H21">
+        <v>0.38</v>
+      </c>
+      <c r="I21">
+        <v>0.41</v>
+      </c>
+      <c r="J21">
+        <v>0.17</v>
+      </c>
+      <c r="K21">
+        <v>0.33</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>0.4</v>
+      </c>
+      <c r="O21">
+        <v>0.3</v>
+      </c>
+      <c r="P21">
+        <v>0.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.1</v>
+      </c>
+      <c r="R21">
+        <v>0.12</v>
+      </c>
+      <c r="S21">
+        <v>0.12</v>
+      </c>
+      <c r="T21">
+        <v>0.12</v>
+      </c>
+      <c r="U21">
+        <v>0.12</v>
+      </c>
+      <c r="V21">
+        <v>30.25000000000002</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="H22">
+        <v>0.35</v>
+      </c>
+      <c r="I22">
+        <v>0.49</v>
+      </c>
+      <c r="J22">
+        <v>0.16</v>
+      </c>
+      <c r="K22">
+        <v>0.37</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
+      <c r="M22">
+        <v>1000</v>
+      </c>
+      <c r="N22">
+        <v>0.4</v>
+      </c>
+      <c r="O22">
+        <v>0.3</v>
+      </c>
+      <c r="P22">
+        <v>0.2</v>
+      </c>
+      <c r="Q22">
+        <v>0.1</v>
+      </c>
+      <c r="R22">
+        <v>0.12</v>
+      </c>
+      <c r="S22">
+        <v>0.12</v>
+      </c>
+      <c r="T22">
+        <v>0.12</v>
+      </c>
+      <c r="U22">
+        <v>0.12</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
+      </c>
+      <c r="J23">
+        <v>0.19</v>
+      </c>
+      <c r="K23">
+        <v>0.34</v>
+      </c>
+      <c r="L23">
+        <v>500</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+      <c r="O23">
+        <v>0.3</v>
+      </c>
+      <c r="P23">
+        <v>0.2</v>
+      </c>
+      <c r="Q23">
+        <v>0.1</v>
+      </c>
+      <c r="R23">
+        <v>0.12</v>
+      </c>
+      <c r="S23">
+        <v>0.12</v>
+      </c>
+      <c r="T23">
+        <v>0.12</v>
+      </c>
+      <c r="U23">
+        <v>0.12</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="H24">
+        <v>0.39</v>
+      </c>
+      <c r="I24">
+        <v>0.41</v>
+      </c>
+      <c r="J24">
+        <v>0.14</v>
+      </c>
+      <c r="K24">
+        <v>0.3</v>
+      </c>
+      <c r="L24">
+        <v>500</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24">
+        <v>0.4</v>
+      </c>
+      <c r="O24">
+        <v>0.3</v>
+      </c>
+      <c r="P24">
+        <v>0.2</v>
+      </c>
+      <c r="Q24">
+        <v>0.1</v>
+      </c>
+      <c r="R24">
+        <v>0.12</v>
+      </c>
+      <c r="S24">
+        <v>0.12</v>
+      </c>
+      <c r="T24">
+        <v>0.12</v>
+      </c>
+      <c r="U24">
+        <v>0.12</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="H25">
+        <v>0.32</v>
+      </c>
+      <c r="I25">
+        <v>0.45</v>
+      </c>
+      <c r="J25">
+        <v>0.18</v>
+      </c>
+      <c r="K25">
+        <v>0.39</v>
+      </c>
+      <c r="L25">
+        <v>500</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>0.4</v>
+      </c>
+      <c r="O25">
+        <v>0.3</v>
+      </c>
+      <c r="P25">
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25">
+        <v>0.12</v>
+      </c>
+      <c r="S25">
+        <v>0.12</v>
+      </c>
+      <c r="T25">
+        <v>0.12</v>
+      </c>
+      <c r="U25">
+        <v>0.12</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>165.1488800499209</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>247.7233200748814</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+      <c r="I26">
+        <v>0.48</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <v>0.4</v>
+      </c>
+      <c r="L26">
+        <v>500</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26">
+        <v>0.4</v>
+      </c>
+      <c r="O26">
+        <v>0.3</v>
+      </c>
+      <c r="P26">
+        <v>0.2</v>
+      </c>
+      <c r="Q26">
+        <v>0.1</v>
+      </c>
+      <c r="R26">
+        <v>0.12</v>
+      </c>
+      <c r="S26">
+        <v>0.12</v>
+      </c>
+      <c r="T26">
+        <v>0.12</v>
+      </c>
+      <c r="U26">
+        <v>0.12</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="H27">
+        <v>0.37</v>
+      </c>
+      <c r="I27">
+        <v>0.46</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>0.33</v>
+      </c>
+      <c r="L27">
+        <v>500</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27">
+        <v>0.4</v>
+      </c>
+      <c r="O27">
+        <v>0.3</v>
+      </c>
+      <c r="P27">
+        <v>0.2</v>
+      </c>
+      <c r="Q27">
+        <v>0.1</v>
+      </c>
+      <c r="R27">
+        <v>0.12</v>
+      </c>
+      <c r="S27">
+        <v>0.12</v>
+      </c>
+      <c r="T27">
+        <v>0.12</v>
+      </c>
+      <c r="U27">
+        <v>0.12</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>103.6774555661557</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="H28">
+        <v>0.38</v>
+      </c>
+      <c r="I28">
+        <v>0.48</v>
+      </c>
+      <c r="J28">
+        <v>0.19</v>
+      </c>
+      <c r="K28">
+        <v>0.32</v>
+      </c>
+      <c r="L28">
+        <v>500</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>0.4</v>
+      </c>
+      <c r="O28">
+        <v>0.3</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>0.1</v>
+      </c>
+      <c r="R28">
+        <v>0.12</v>
+      </c>
+      <c r="S28">
+        <v>0.12</v>
+      </c>
+      <c r="T28">
+        <v>0.12</v>
+      </c>
+      <c r="U28">
+        <v>0.12</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>97.78916096758275</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <v>0.43</v>
+      </c>
+      <c r="J29">
+        <v>0.14</v>
+      </c>
+      <c r="K29">
+        <v>0.32</v>
+      </c>
+      <c r="L29">
+        <v>500</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>0.4</v>
+      </c>
+      <c r="O29">
+        <v>0.3</v>
+      </c>
+      <c r="P29">
+        <v>0.2</v>
+      </c>
+      <c r="Q29">
+        <v>0.1</v>
+      </c>
+      <c r="R29">
+        <v>0.12</v>
+      </c>
+      <c r="S29">
+        <v>0.12</v>
+      </c>
+      <c r="T29">
+        <v>0.12</v>
+      </c>
+      <c r="U29">
+        <v>0.12</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>94.78573553475324</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+      <c r="I30">
+        <v>0.49</v>
+      </c>
+      <c r="J30">
+        <v>0.14</v>
+      </c>
+      <c r="K30">
+        <v>0.39</v>
+      </c>
+      <c r="L30">
+        <v>500</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30">
+        <v>0.4</v>
+      </c>
+      <c r="O30">
+        <v>0.3</v>
+      </c>
+      <c r="P30">
+        <v>0.2</v>
+      </c>
+      <c r="Q30">
+        <v>0.1</v>
+      </c>
+      <c r="R30">
+        <v>0.12</v>
+      </c>
+      <c r="S30">
+        <v>0.12</v>
+      </c>
+      <c r="T30">
+        <v>0.12</v>
+      </c>
+      <c r="U30">
+        <v>0.12</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>98.71785172641819</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="H31">
+        <v>0.37</v>
+      </c>
+      <c r="I31">
+        <v>0.46</v>
+      </c>
+      <c r="J31">
+        <v>0.15</v>
+      </c>
+      <c r="K31">
+        <v>0.33</v>
+      </c>
+      <c r="L31">
+        <v>500</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="N31">
+        <v>0.4</v>
+      </c>
+      <c r="O31">
+        <v>0.3</v>
+      </c>
+      <c r="P31">
+        <v>0.2</v>
+      </c>
+      <c r="Q31">
+        <v>0.1</v>
+      </c>
+      <c r="R31">
+        <v>0.12</v>
+      </c>
+      <c r="S31">
+        <v>0.12</v>
+      </c>
+      <c r="T31">
+        <v>0.12</v>
+      </c>
+      <c r="U31">
+        <v>0.12</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>130.7873219730109</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>196.1809829595164</v>
+      </c>
+      <c r="H32">
+        <v>0.37</v>
+      </c>
+      <c r="I32">
+        <v>0.49</v>
+      </c>
+      <c r="J32">
+        <v>0.13</v>
+      </c>
+      <c r="K32">
+        <v>0.4</v>
+      </c>
+      <c r="L32">
+        <v>500</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32">
+        <v>0.4</v>
+      </c>
+      <c r="O32">
+        <v>0.3</v>
+      </c>
+      <c r="P32">
+        <v>0.2</v>
+      </c>
+      <c r="Q32">
+        <v>0.1</v>
+      </c>
+      <c r="R32">
+        <v>0.12</v>
+      </c>
+      <c r="S32">
+        <v>0.12</v>
+      </c>
+      <c r="T32">
+        <v>0.12</v>
+      </c>
+      <c r="U32">
+        <v>0.12</v>
+      </c>
+      <c r="V32">
+        <v>91.43994444444448</v>
+      </c>
+      <c r="W32">
+        <v>23.15744444444445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>201.8420447128433</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>302.7630670692649</v>
+      </c>
+      <c r="H33">
+        <v>0.37</v>
+      </c>
+      <c r="I33">
+        <v>0.46</v>
+      </c>
+      <c r="J33">
+        <v>0.19</v>
+      </c>
+      <c r="K33">
+        <v>0.31</v>
+      </c>
+      <c r="L33">
+        <v>500</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>0.4</v>
+      </c>
+      <c r="O33">
+        <v>0.3</v>
+      </c>
+      <c r="P33">
+        <v>0.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.1</v>
+      </c>
+      <c r="R33">
+        <v>0.12</v>
+      </c>
+      <c r="S33">
+        <v>0.12</v>
+      </c>
+      <c r="T33">
+        <v>0.12</v>
+      </c>
+      <c r="U33">
+        <v>0.12</v>
+      </c>
+      <c r="V33">
+        <v>89.48500000000003</v>
+      </c>
+      <c r="W33">
+        <v>122.4135000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>294.8296768634683</v>
+      </c>
+      <c r="D34">
+        <v>0.00277778</v>
+      </c>
+      <c r="E34">
+        <v>0.00277778</v>
+      </c>
+      <c r="F34">
+        <v>0.00555556</v>
+      </c>
+      <c r="G34">
+        <v>442.2445152952025</v>
+      </c>
+      <c r="H34">
+        <v>0.34</v>
+      </c>
+      <c r="I34">
+        <v>0.46</v>
+      </c>
+      <c r="J34">
+        <v>0.18</v>
+      </c>
+      <c r="K34">
+        <v>0.38</v>
+      </c>
+      <c r="L34">
+        <v>500</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34">
+        <v>0.4</v>
+      </c>
+      <c r="O34">
+        <v>0.3</v>
+      </c>
+      <c r="P34">
+        <v>0.2</v>
+      </c>
+      <c r="Q34">
+        <v>0.1</v>
+      </c>
+      <c r="R34">
+        <v>0.12</v>
+      </c>
+      <c r="S34">
+        <v>0.12</v>
+      </c>
+      <c r="T34">
+        <v>0.12</v>
+      </c>
+      <c r="U34">
+        <v>0.12</v>
+      </c>
+      <c r="V34">
+        <v>38.11500000000002</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>349.0296502993302</v>
+      </c>
+      <c r="D35">
+        <v>0.0138889</v>
+      </c>
+      <c r="E35">
+        <v>0.0138889</v>
+      </c>
+      <c r="F35">
+        <v>0.0277778</v>
+      </c>
+      <c r="G35">
+        <v>523.5444754489954</v>
+      </c>
+      <c r="H35">
+        <v>0.39</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>0.15</v>
+      </c>
+      <c r="K35">
+        <v>0.4</v>
+      </c>
+      <c r="L35">
+        <v>500</v>
+      </c>
+      <c r="M35">
+        <v>1000</v>
+      </c>
+      <c r="N35">
+        <v>0.4</v>
+      </c>
+      <c r="O35">
+        <v>0.3</v>
+      </c>
+      <c r="P35">
+        <v>0.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.1</v>
+      </c>
+      <c r="R35">
+        <v>0.12</v>
+      </c>
+      <c r="S35">
+        <v>0.12</v>
+      </c>
+      <c r="T35">
+        <v>0.12</v>
+      </c>
+      <c r="U35">
+        <v>0.12</v>
+      </c>
+      <c r="V35">
+        <v>20.66350000000001</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>364.1653337305623</v>
+      </c>
+      <c r="D36">
+        <v>0.03055558</v>
+      </c>
+      <c r="E36">
+        <v>0.03055558</v>
+      </c>
+      <c r="F36">
+        <v>0.06111116</v>
+      </c>
+      <c r="G36">
+        <v>546.2480005958435</v>
+      </c>
+      <c r="H36">
+        <v>0.38</v>
+      </c>
+      <c r="I36">
+        <v>0.43</v>
+      </c>
+      <c r="J36">
+        <v>0.11</v>
+      </c>
+      <c r="K36">
+        <v>0.37</v>
+      </c>
+      <c r="L36">
+        <v>500</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>0.4</v>
+      </c>
+      <c r="O36">
+        <v>0.3</v>
+      </c>
+      <c r="P36">
+        <v>0.2</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="R36">
+        <v>0.12</v>
+      </c>
+      <c r="S36">
+        <v>0.12</v>
+      </c>
+      <c r="T36">
+        <v>0.12</v>
+      </c>
+      <c r="U36">
+        <v>0.12</v>
+      </c>
+      <c r="V36">
+        <v>42.35</v>
+      </c>
+      <c r="W36">
+        <v>52.40552777777779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>381.7906987705871</v>
+      </c>
+      <c r="D37">
+        <v>0.05833338</v>
+      </c>
+      <c r="E37">
+        <v>0.05833338</v>
+      </c>
+      <c r="F37">
+        <v>0.11666676</v>
+      </c>
+      <c r="G37">
+        <v>572.6860481558806</v>
+      </c>
+      <c r="H37">
+        <v>0.37</v>
+      </c>
+      <c r="I37">
+        <v>0.49</v>
+      </c>
+      <c r="J37">
+        <v>0.12</v>
+      </c>
+      <c r="K37">
+        <v>0.3</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>0.4</v>
+      </c>
+      <c r="O37">
+        <v>0.3</v>
+      </c>
+      <c r="P37">
+        <v>0.2</v>
+      </c>
+      <c r="Q37">
+        <v>0.1</v>
+      </c>
+      <c r="R37">
+        <v>0.12</v>
+      </c>
+      <c r="S37">
+        <v>0.12</v>
+      </c>
+      <c r="T37">
+        <v>0.12</v>
+      </c>
+      <c r="U37">
+        <v>0.12</v>
+      </c>
+      <c r="V37">
+        <v>69.46500000000002</v>
+      </c>
+      <c r="W37">
+        <v>65.41700000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>410.3627591381613</v>
+      </c>
+      <c r="D38">
+        <v>0.07777784</v>
+      </c>
+      <c r="E38">
+        <v>0.07777784</v>
+      </c>
+      <c r="F38">
+        <v>0.15555568</v>
+      </c>
+      <c r="G38">
+        <v>615.5441387072419</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>0.46</v>
+      </c>
+      <c r="J38">
+        <v>0.19</v>
+      </c>
+      <c r="K38">
+        <v>0.33</v>
+      </c>
+      <c r="L38">
+        <v>500</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>0.4</v>
+      </c>
+      <c r="O38">
+        <v>0.3</v>
+      </c>
+      <c r="P38">
+        <v>0.2</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="R38">
+        <v>0.12</v>
+      </c>
+      <c r="S38">
+        <v>0.12</v>
+      </c>
+      <c r="T38">
+        <v>0.12</v>
+      </c>
+      <c r="U38">
+        <v>0.12</v>
+      </c>
+      <c r="V38">
+        <v>66.00000000000004</v>
+      </c>
+      <c r="W38">
+        <v>34.73616666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>408.4460994869478</v>
+      </c>
+      <c r="D39">
+        <v>0.07222228</v>
+      </c>
+      <c r="E39">
+        <v>0.07222228</v>
+      </c>
+      <c r="F39">
+        <v>0.14444456</v>
+      </c>
+      <c r="G39">
+        <v>612.6691492304217</v>
+      </c>
+      <c r="H39">
+        <v>0.33</v>
+      </c>
+      <c r="I39">
+        <v>0.45</v>
+      </c>
+      <c r="J39">
+        <v>0.11</v>
+      </c>
+      <c r="K39">
+        <v>0.32</v>
+      </c>
+      <c r="L39">
+        <v>500</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>0.4</v>
+      </c>
+      <c r="O39">
+        <v>0.3</v>
+      </c>
+      <c r="P39">
+        <v>0.2</v>
+      </c>
+      <c r="Q39">
+        <v>0.1</v>
+      </c>
+      <c r="R39">
+        <v>0.12</v>
+      </c>
+      <c r="S39">
+        <v>0.12</v>
+      </c>
+      <c r="T39">
+        <v>0.12</v>
+      </c>
+      <c r="U39">
+        <v>0.12</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>377.9573794681603</v>
+      </c>
+      <c r="D40">
+        <v>0.0555556</v>
+      </c>
+      <c r="E40">
+        <v>0.0555556</v>
+      </c>
+      <c r="F40">
+        <v>0.1111112</v>
+      </c>
+      <c r="G40">
+        <v>566.9360692022404</v>
+      </c>
+      <c r="H40">
+        <v>0.37</v>
+      </c>
+      <c r="I40">
+        <v>0.48</v>
+      </c>
+      <c r="J40">
+        <v>0.14</v>
+      </c>
+      <c r="K40">
+        <v>0.33</v>
+      </c>
+      <c r="L40">
+        <v>500</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>0.4</v>
+      </c>
+      <c r="O40">
+        <v>0.3</v>
+      </c>
+      <c r="P40">
+        <v>0.2</v>
+      </c>
+      <c r="Q40">
+        <v>0.1</v>
+      </c>
+      <c r="R40">
+        <v>0.12</v>
+      </c>
+      <c r="S40">
+        <v>0.12</v>
+      </c>
+      <c r="T40">
+        <v>0.12</v>
+      </c>
+      <c r="U40">
+        <v>0.12</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>111.9891666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>354.1473291618483</v>
+      </c>
+      <c r="D41">
+        <v>0.01111112</v>
+      </c>
+      <c r="E41">
+        <v>0.01111112</v>
+      </c>
+      <c r="F41">
+        <v>0.02222224</v>
+      </c>
+      <c r="G41">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="H41">
+        <v>0.31</v>
+      </c>
+      <c r="I41">
+        <v>0.44</v>
+      </c>
+      <c r="J41">
+        <v>0.18</v>
+      </c>
+      <c r="K41">
+        <v>0.32</v>
+      </c>
+      <c r="L41">
+        <v>500</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="N41">
+        <v>0.4</v>
+      </c>
+      <c r="O41">
+        <v>0.3</v>
+      </c>
+      <c r="P41">
+        <v>0.2</v>
+      </c>
+      <c r="Q41">
+        <v>0.1</v>
+      </c>
+      <c r="R41">
+        <v>0.12</v>
+      </c>
+      <c r="S41">
+        <v>0.12</v>
+      </c>
+      <c r="T41">
+        <v>0.12</v>
+      </c>
+      <c r="U41">
+        <v>0.12</v>
+      </c>
+      <c r="V41">
+        <v>49.93404166666668</v>
+      </c>
+      <c r="W41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>356.5382138814032</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="H42">
+        <v>0.33</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.12</v>
+      </c>
+      <c r="K42">
+        <v>0.36</v>
+      </c>
+      <c r="L42">
+        <v>500</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42">
+        <v>0.4</v>
+      </c>
+      <c r="O42">
+        <v>0.3</v>
+      </c>
+      <c r="P42">
+        <v>0.2</v>
+      </c>
+      <c r="Q42">
+        <v>0.1</v>
+      </c>
+      <c r="R42">
+        <v>0.12</v>
+      </c>
+      <c r="S42">
+        <v>0.12</v>
+      </c>
+      <c r="T42">
+        <v>0.12</v>
+      </c>
+      <c r="U42">
+        <v>0.12</v>
+      </c>
+      <c r="V42">
+        <v>33.37400000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>444.5860015701382</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>666.8790023552073</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0.45</v>
+      </c>
+      <c r="J43">
+        <v>0.15</v>
+      </c>
+      <c r="K43">
+        <v>0.35</v>
+      </c>
+      <c r="L43">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="N43">
+        <v>0.4</v>
+      </c>
+      <c r="O43">
+        <v>0.3</v>
+      </c>
+      <c r="P43">
+        <v>0.2</v>
+      </c>
+      <c r="Q43">
+        <v>0.1</v>
+      </c>
+      <c r="R43">
+        <v>0.12</v>
+      </c>
+      <c r="S43">
+        <v>0.12</v>
+      </c>
+      <c r="T43">
+        <v>0.12</v>
+      </c>
+      <c r="U43">
+        <v>0.12</v>
+      </c>
+      <c r="V43">
+        <v>157.15425</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>515.7790399549028</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>773.6685599323542</v>
+      </c>
+      <c r="H44">
+        <v>0.4</v>
+      </c>
+      <c r="I44">
+        <v>0.48</v>
+      </c>
+      <c r="J44">
+        <v>0.19</v>
+      </c>
+      <c r="K44">
+        <v>0.4</v>
+      </c>
+      <c r="L44">
+        <v>500</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>0.4</v>
+      </c>
+      <c r="O44">
+        <v>0.3</v>
+      </c>
+      <c r="P44">
+        <v>0.2</v>
+      </c>
+      <c r="Q44">
+        <v>0.1</v>
+      </c>
+      <c r="R44">
+        <v>0.12</v>
+      </c>
+      <c r="S44">
+        <v>0.12</v>
+      </c>
+      <c r="T44">
+        <v>0.12</v>
+      </c>
+      <c r="U44">
+        <v>0.12</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>517.557383961184</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>776.336075941776</v>
+      </c>
+      <c r="H45">
+        <v>0.35</v>
+      </c>
+      <c r="I45">
+        <v>0.43</v>
+      </c>
+      <c r="J45">
+        <v>0.19</v>
+      </c>
+      <c r="K45">
+        <v>0.39</v>
+      </c>
+      <c r="L45">
+        <v>500</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>0.4</v>
+      </c>
+      <c r="O45">
+        <v>0.3</v>
+      </c>
+      <c r="P45">
+        <v>0.2</v>
+      </c>
+      <c r="Q45">
+        <v>0.1</v>
+      </c>
+      <c r="R45">
+        <v>0.12</v>
+      </c>
+      <c r="S45">
+        <v>0.12</v>
+      </c>
+      <c r="T45">
+        <v>0.12</v>
+      </c>
+      <c r="U45">
+        <v>0.12</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>423.5225047846375</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>635.2837571769562</v>
+      </c>
+      <c r="H46">
+        <v>0.38</v>
+      </c>
+      <c r="I46">
+        <v>0.46</v>
+      </c>
+      <c r="J46">
+        <v>0.11</v>
+      </c>
+      <c r="K46">
+        <v>0.31</v>
+      </c>
+      <c r="L46">
+        <v>500</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>0.4</v>
+      </c>
+      <c r="O46">
+        <v>0.3</v>
+      </c>
+      <c r="P46">
+        <v>0.2</v>
+      </c>
+      <c r="Q46">
+        <v>0.1</v>
+      </c>
+      <c r="R46">
+        <v>0.12</v>
+      </c>
+      <c r="S46">
+        <v>0.12</v>
+      </c>
+      <c r="T46">
+        <v>0.12</v>
+      </c>
+      <c r="U46">
+        <v>0.12</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="H47">
+        <v>0.38</v>
+      </c>
+      <c r="I47">
+        <v>0.44</v>
+      </c>
+      <c r="J47">
+        <v>0.11</v>
+      </c>
+      <c r="K47">
+        <v>0.35</v>
+      </c>
+      <c r="L47">
+        <v>500</v>
+      </c>
+      <c r="M47">
+        <v>1000</v>
+      </c>
+      <c r="N47">
+        <v>0.4</v>
+      </c>
+      <c r="O47">
+        <v>0.3</v>
+      </c>
+      <c r="P47">
+        <v>0.2</v>
+      </c>
+      <c r="Q47">
+        <v>0.1</v>
+      </c>
+      <c r="R47">
+        <v>0.12</v>
+      </c>
+      <c r="S47">
+        <v>0.12</v>
+      </c>
+      <c r="T47">
+        <v>0.12</v>
+      </c>
+      <c r="U47">
+        <v>0.12</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>301.7454591101147</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="H48">
+        <v>0.34</v>
+      </c>
+      <c r="I48">
+        <v>0.4</v>
+      </c>
+      <c r="J48">
+        <v>0.2</v>
+      </c>
+      <c r="K48">
+        <v>0.3</v>
+      </c>
+      <c r="L48">
+        <v>500</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="N48">
+        <v>0.4</v>
+      </c>
+      <c r="O48">
+        <v>0.3</v>
+      </c>
+      <c r="P48">
+        <v>0.2</v>
+      </c>
+      <c r="Q48">
+        <v>0.1</v>
+      </c>
+      <c r="R48">
+        <v>0.12</v>
+      </c>
+      <c r="S48">
+        <v>0.12</v>
+      </c>
+      <c r="T48">
+        <v>0.12</v>
+      </c>
+      <c r="U48">
+        <v>0.12</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="H49">
+        <v>0.32</v>
+      </c>
+      <c r="I49">
+        <v>0.42</v>
+      </c>
+      <c r="J49">
+        <v>0.2</v>
+      </c>
+      <c r="K49">
+        <v>0.3</v>
+      </c>
+      <c r="L49">
+        <v>500</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>0.4</v>
+      </c>
+      <c r="O49">
+        <v>0.3</v>
+      </c>
+      <c r="P49">
+        <v>0.2</v>
+      </c>
+      <c r="Q49">
+        <v>0.1</v>
+      </c>
+      <c r="R49">
+        <v>0.12</v>
+      </c>
+      <c r="S49">
+        <v>0.12</v>
+      </c>
+      <c r="T49">
+        <v>0.12</v>
+      </c>
+      <c r="U49">
+        <v>0.12</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="H50">
+        <v>0.34</v>
+      </c>
+      <c r="I50">
+        <v>0.48</v>
+      </c>
+      <c r="J50">
+        <v>0.18</v>
+      </c>
+      <c r="K50">
+        <v>0.35</v>
+      </c>
+      <c r="L50">
+        <v>500</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>0.4</v>
+      </c>
+      <c r="O50">
+        <v>0.3</v>
+      </c>
+      <c r="P50">
+        <v>0.2</v>
+      </c>
+      <c r="Q50">
+        <v>0.1</v>
+      </c>
+      <c r="R50">
+        <v>0.12</v>
+      </c>
+      <c r="S50">
+        <v>0.12</v>
+      </c>
+      <c r="T50">
+        <v>0.12</v>
+      </c>
+      <c r="U50">
+        <v>0.12</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>138.809629379121</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="H51">
+        <v>0.4</v>
+      </c>
+      <c r="I51">
+        <v>0.48</v>
+      </c>
+      <c r="J51">
+        <v>0.2</v>
+      </c>
+      <c r="K51">
+        <v>0.34</v>
+      </c>
+      <c r="L51">
+        <v>500</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51">
+        <v>0.4</v>
+      </c>
+      <c r="O51">
+        <v>0.3</v>
+      </c>
+      <c r="P51">
+        <v>0.2</v>
+      </c>
+      <c r="Q51">
+        <v>0.1</v>
+      </c>
+      <c r="R51">
+        <v>0.12</v>
+      </c>
+      <c r="S51">
+        <v>0.12</v>
+      </c>
+      <c r="T51">
+        <v>0.12</v>
+      </c>
+      <c r="U51">
+        <v>0.12</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>111.1662597703822</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="H52">
+        <v>0.4</v>
+      </c>
+      <c r="I52">
+        <v>0.5</v>
+      </c>
+      <c r="J52">
+        <v>0.11</v>
+      </c>
+      <c r="K52">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>101.4841646250765</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="H53">
+        <v>0.32</v>
+      </c>
+      <c r="I53">
+        <v>0.41</v>
+      </c>
+      <c r="J53">
+        <v>0.13</v>
+      </c>
+      <c r="K53">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="H54">
+        <v>0.38</v>
+      </c>
+      <c r="I54">
+        <v>0.46</v>
+      </c>
+      <c r="J54">
+        <v>0.17</v>
+      </c>
+      <c r="K54">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>95.25996060309471</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="H55">
+        <v>0.38</v>
+      </c>
+      <c r="I55">
+        <v>0.47</v>
+      </c>
+      <c r="J55">
+        <v>0.12</v>
+      </c>
+      <c r="K55">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>101.009939556736</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>151.514909335104</v>
+      </c>
+      <c r="H56">
+        <v>0.4</v>
+      </c>
+      <c r="I56">
+        <v>0.48</v>
+      </c>
+      <c r="J56">
+        <v>0.17</v>
+      </c>
+      <c r="K56">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>123.3182771466324</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>184.9774157199486</v>
+      </c>
+      <c r="H57">
+        <v>0.31</v>
+      </c>
+      <c r="I57">
+        <v>0.48</v>
+      </c>
+      <c r="J57">
+        <v>0.12</v>
+      </c>
+      <c r="K57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>218.3608845934044</v>
+      </c>
+      <c r="D58">
+        <v>0.0138889</v>
+      </c>
+      <c r="E58">
+        <v>0.0138889</v>
+      </c>
+      <c r="F58">
+        <v>0.0277778</v>
+      </c>
+      <c r="G58">
+        <v>327.5413268901066</v>
+      </c>
+      <c r="H58">
+        <v>0.4</v>
+      </c>
+      <c r="I58">
+        <v>0.47</v>
+      </c>
+      <c r="J58">
+        <v>0.15</v>
+      </c>
+      <c r="K58">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>341.6396429843413</v>
+      </c>
+      <c r="D59">
+        <v>0.0277778</v>
+      </c>
+      <c r="E59">
+        <v>0.0277778</v>
+      </c>
+      <c r="F59">
+        <v>0.0555556</v>
+      </c>
+      <c r="G59">
+        <v>512.459464476512</v>
+      </c>
+      <c r="H59">
+        <v>0.37</v>
+      </c>
+      <c r="I59">
+        <v>0.48</v>
+      </c>
+      <c r="J59">
+        <v>0.18</v>
+      </c>
+      <c r="K59">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>429.6281525395342</v>
+      </c>
+      <c r="D60">
+        <v>0.04444448</v>
+      </c>
+      <c r="E60">
+        <v>0.04444448</v>
+      </c>
+      <c r="F60">
+        <v>0.08888896</v>
+      </c>
+      <c r="G60">
+        <v>644.4422288093012</v>
+      </c>
+      <c r="H60">
+        <v>0.4</v>
+      </c>
+      <c r="I60">
+        <v>0.46</v>
+      </c>
+      <c r="J60">
+        <v>0.16</v>
+      </c>
+      <c r="K60">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>500.2086502110246</v>
+      </c>
+      <c r="D61">
+        <v>0.02500002</v>
+      </c>
+      <c r="E61">
+        <v>0.02500002</v>
+      </c>
+      <c r="F61">
+        <v>0.05000004</v>
+      </c>
+      <c r="G61">
+        <v>750.3129753165368</v>
+      </c>
+      <c r="H61">
+        <v>0.4</v>
+      </c>
+      <c r="I61">
+        <v>0.45</v>
+      </c>
+      <c r="J61">
+        <v>0.16</v>
+      </c>
+      <c r="K61">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>509.8709859784823</v>
+      </c>
+      <c r="D62">
+        <v>0.0555556</v>
+      </c>
+      <c r="E62">
+        <v>0.0555556</v>
+      </c>
+      <c r="F62">
+        <v>0.1111112</v>
+      </c>
+      <c r="G62">
+        <v>764.8064789677235</v>
+      </c>
+      <c r="H62">
+        <v>0.32</v>
+      </c>
+      <c r="I62">
+        <v>0.45</v>
+      </c>
+      <c r="J62">
+        <v>0.18</v>
+      </c>
+      <c r="K62">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>426.7828021294853</v>
+      </c>
+      <c r="D63">
+        <v>0.07500006000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.07500006000000001</v>
+      </c>
+      <c r="F63">
+        <v>0.15000012</v>
+      </c>
+      <c r="G63">
+        <v>640.1742031942279</v>
+      </c>
+      <c r="H63">
+        <v>0.38</v>
+      </c>
+      <c r="I63">
+        <v>0.4</v>
+      </c>
+      <c r="J63">
+        <v>0.1</v>
+      </c>
+      <c r="K63">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>335.7908671414634</v>
+      </c>
+      <c r="D64">
+        <v>0.04722226</v>
+      </c>
+      <c r="E64">
+        <v>0.04722226</v>
+      </c>
+      <c r="F64">
+        <v>0.09444452</v>
+      </c>
+      <c r="G64">
+        <v>503.6863007121951</v>
+      </c>
+      <c r="H64">
+        <v>0.3</v>
+      </c>
+      <c r="I64">
+        <v>0.45</v>
+      </c>
+      <c r="J64">
+        <v>0.18</v>
+      </c>
+      <c r="K64">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>287.6372633269555</v>
+      </c>
+      <c r="D65">
+        <v>0.00833334</v>
+      </c>
+      <c r="E65">
+        <v>0.00833334</v>
+      </c>
+      <c r="F65">
+        <v>0.01666668</v>
+      </c>
+      <c r="G65">
+        <v>431.4558949904333</v>
+      </c>
+      <c r="H65">
+        <v>0.36</v>
+      </c>
+      <c r="I65">
+        <v>0.46</v>
+      </c>
+      <c r="J65">
+        <v>0.1</v>
+      </c>
+      <c r="K65">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>263.1949129295224</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>394.7923693942836</v>
+      </c>
+      <c r="H66">
+        <v>0.38</v>
+      </c>
+      <c r="I66">
+        <v>0.41</v>
+      </c>
+      <c r="J66">
+        <v>0.14</v>
+      </c>
+      <c r="K66">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>310.0641571839385</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>465.0962357759078</v>
+      </c>
+      <c r="H67">
+        <v>0.37</v>
+      </c>
+      <c r="I67">
+        <v>0.49</v>
+      </c>
+      <c r="J67">
+        <v>0.2</v>
+      </c>
+      <c r="K67">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>385.8018524736416</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>578.7027787104623</v>
+      </c>
+      <c r="H68">
+        <v>0.31</v>
+      </c>
+      <c r="I68">
+        <v>0.4</v>
+      </c>
+      <c r="J68">
+        <v>0.2</v>
+      </c>
+      <c r="K68">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>434.8051095355954</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>652.2076643033931</v>
+      </c>
+      <c r="H69">
+        <v>0.31</v>
+      </c>
+      <c r="I69">
+        <v>0.45</v>
+      </c>
+      <c r="J69">
+        <v>0.11</v>
+      </c>
+      <c r="K69">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>394.9702037949108</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>592.4553056923662</v>
+      </c>
+      <c r="H70">
+        <v>0.39</v>
+      </c>
+      <c r="I70">
+        <v>0.44</v>
+      </c>
+      <c r="J70">
+        <v>0.1</v>
+      </c>
+      <c r="K70">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>334.3089138028959</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>501.4633707043439</v>
+      </c>
+      <c r="H71">
+        <v>0.37</v>
+      </c>
+      <c r="I71">
+        <v>0.49</v>
+      </c>
+      <c r="J71">
+        <v>0.16</v>
+      </c>
+      <c r="K71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>283.0530876663214</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>424.5796314994821</v>
+      </c>
+      <c r="H72">
+        <v>0.33</v>
+      </c>
+      <c r="I72">
+        <v>0.49</v>
+      </c>
+      <c r="J72">
+        <v>0.16</v>
+      </c>
+      <c r="K72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>208.7578269594892</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>313.1367404392338</v>
+      </c>
+      <c r="H73">
+        <v>0.37</v>
+      </c>
+      <c r="I73">
+        <v>0.5</v>
+      </c>
+      <c r="J73">
+        <v>0.1</v>
+      </c>
+      <c r="K73">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>143.9865863751822</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>215.9798795627733</v>
+      </c>
+      <c r="H74">
+        <v>0.3</v>
+      </c>
+      <c r="I74">
+        <v>0.42</v>
+      </c>
+      <c r="J74">
+        <v>0.15</v>
+      </c>
+      <c r="K74">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>106.503046598358</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>159.754569897537</v>
+      </c>
+      <c r="H75">
+        <v>0.37</v>
+      </c>
+      <c r="I75">
+        <v>0.45</v>
+      </c>
+      <c r="J75">
+        <v>0.17</v>
+      </c>
+      <c r="K75">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>97.67060470049763</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>146.5059070507465</v>
+      </c>
+      <c r="H76">
+        <v>0.3</v>
+      </c>
+      <c r="I76">
+        <v>0.43</v>
+      </c>
+      <c r="J76">
+        <v>0.18</v>
+      </c>
+      <c r="K76">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>95.08212620246655</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>142.6231893036998</v>
+      </c>
+      <c r="H77">
+        <v>0.34</v>
+      </c>
+      <c r="I77">
+        <v>0.4</v>
+      </c>
+      <c r="J77">
+        <v>0.19</v>
+      </c>
+      <c r="K77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>96.62335767457658</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>144.9350365118649</v>
+      </c>
+      <c r="H78">
+        <v>0.33</v>
+      </c>
+      <c r="I78">
+        <v>0.48</v>
+      </c>
+      <c r="J78">
+        <v>0.2</v>
+      </c>
+      <c r="K78">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>115.7899541867118</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>173.6849312800677</v>
+      </c>
+      <c r="H79">
+        <v>0.38</v>
+      </c>
+      <c r="I79">
+        <v>0.48</v>
+      </c>
+      <c r="J79">
+        <v>0.15</v>
+      </c>
+      <c r="K79">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>222.4510758078495</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>333.6766137117742</v>
+      </c>
+      <c r="H80">
+        <v>0.36</v>
+      </c>
+      <c r="I80">
+        <v>0.46</v>
+      </c>
+      <c r="J80">
+        <v>0.17</v>
+      </c>
+      <c r="K80">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>319.6079366843101</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>479.4119050264652</v>
+      </c>
+      <c r="H81">
+        <v>0.32</v>
+      </c>
+      <c r="I81">
+        <v>0.41</v>
+      </c>
+      <c r="J81">
+        <v>0.1</v>
+      </c>
+      <c r="K81">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>329.7049787644142</v>
+      </c>
+      <c r="D82">
+        <v>0.04444448</v>
+      </c>
+      <c r="E82">
+        <v>0.04444448</v>
+      </c>
+      <c r="F82">
+        <v>0.08888896</v>
+      </c>
+      <c r="G82">
+        <v>494.5574681466213</v>
+      </c>
+      <c r="H82">
+        <v>0.32</v>
+      </c>
+      <c r="I82">
+        <v>0.4</v>
+      </c>
+      <c r="J82">
+        <v>0.11</v>
+      </c>
+      <c r="K82">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>304.3141782302978</v>
+      </c>
+      <c r="D83">
+        <v>0.07777784</v>
+      </c>
+      <c r="E83">
+        <v>0.07777784</v>
+      </c>
+      <c r="F83">
+        <v>0.15555568</v>
+      </c>
+      <c r="G83">
+        <v>456.4712673454467</v>
+      </c>
+      <c r="H83">
+        <v>0.3</v>
+      </c>
+      <c r="I83">
+        <v>0.41</v>
+      </c>
+      <c r="J83">
+        <v>0.15</v>
+      </c>
+      <c r="K83">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>287.0840007472244</v>
+      </c>
+      <c r="D84">
+        <v>0.1666668</v>
+      </c>
+      <c r="E84">
+        <v>0.1666668</v>
+      </c>
+      <c r="F84">
+        <v>0.3333336</v>
+      </c>
+      <c r="G84">
+        <v>430.6260011208366</v>
+      </c>
+      <c r="H84">
+        <v>0.36</v>
+      </c>
+      <c r="I84">
+        <v>0.5</v>
+      </c>
+      <c r="J84">
+        <v>0.19</v>
+      </c>
+      <c r="K84">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>292.2411983654376</v>
+      </c>
+      <c r="D85">
+        <v>0.11666676</v>
+      </c>
+      <c r="E85">
+        <v>0.11666676</v>
+      </c>
+      <c r="F85">
+        <v>0.23333352</v>
+      </c>
+      <c r="G85">
+        <v>438.3617975481563</v>
+      </c>
+      <c r="H85">
+        <v>0.39</v>
+      </c>
+      <c r="I85">
+        <v>0.5</v>
+      </c>
+      <c r="J85">
+        <v>0.14</v>
+      </c>
+      <c r="K85">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>322.8089558956153</v>
+      </c>
+      <c r="D86">
+        <v>0.10277786</v>
+      </c>
+      <c r="E86">
+        <v>0.10277786</v>
+      </c>
+      <c r="F86">
+        <v>0.20555572</v>
+      </c>
+      <c r="G86">
+        <v>484.213433843423</v>
+      </c>
+      <c r="H86">
+        <v>0.37</v>
+      </c>
+      <c r="I86">
+        <v>0.48</v>
+      </c>
+      <c r="J86">
+        <v>0.1</v>
+      </c>
+      <c r="K86">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>319.8055304627859</v>
+      </c>
+      <c r="D87">
+        <v>0.0555556</v>
+      </c>
+      <c r="E87">
+        <v>0.0555556</v>
+      </c>
+      <c r="F87">
+        <v>0.1111112</v>
+      </c>
+      <c r="G87">
+        <v>479.7082956941788</v>
+      </c>
+      <c r="H87">
+        <v>0.32</v>
+      </c>
+      <c r="I87">
+        <v>0.49</v>
+      </c>
+      <c r="J87">
+        <v>0.19</v>
+      </c>
+      <c r="K87">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>284.8907098061437</v>
+      </c>
+      <c r="D88">
+        <v>0.04444448</v>
+      </c>
+      <c r="E88">
+        <v>0.04444448</v>
+      </c>
+      <c r="F88">
+        <v>0.08888896</v>
+      </c>
+      <c r="G88">
+        <v>427.3360647092156</v>
+      </c>
+      <c r="H88">
+        <v>0.4</v>
+      </c>
+      <c r="I88">
+        <v>0.44</v>
+      </c>
+      <c r="J88">
+        <v>0.11</v>
+      </c>
+      <c r="K88">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>258.9071279366011</v>
+      </c>
+      <c r="D89">
+        <v>0.01666668</v>
+      </c>
+      <c r="E89">
+        <v>0.01666668</v>
+      </c>
+      <c r="F89">
+        <v>0.03333336</v>
+      </c>
+      <c r="G89">
+        <v>388.3606919049017</v>
+      </c>
+      <c r="H89">
+        <v>0.31</v>
+      </c>
+      <c r="I89">
+        <v>0.49</v>
+      </c>
+      <c r="J89">
+        <v>0.18</v>
+      </c>
+      <c r="K89">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>259.8950968289786</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>389.8426452434679</v>
+      </c>
+      <c r="H90">
+        <v>0.32</v>
+      </c>
+      <c r="I90">
+        <v>0.5</v>
+      </c>
+      <c r="J90">
+        <v>0.16</v>
+      </c>
+      <c r="K90">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>317.7703145444873</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>476.6554718167309</v>
+      </c>
+      <c r="H91">
+        <v>0.4</v>
+      </c>
+      <c r="I91">
+        <v>0.41</v>
+      </c>
+      <c r="J91">
+        <v>0.13</v>
+      </c>
+      <c r="K91">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>410.4220372717043</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>615.6330559075565</v>
+      </c>
+      <c r="H92">
+        <v>0.39</v>
+      </c>
+      <c r="I92">
+        <v>0.5</v>
+      </c>
+      <c r="J92">
+        <v>0.12</v>
+      </c>
+      <c r="K92">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>461.9940134538397</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>692.9910201807596</v>
+      </c>
+      <c r="H93">
+        <v>0.38</v>
+      </c>
+      <c r="I93">
+        <v>0.4</v>
+      </c>
+      <c r="J93">
+        <v>0.12</v>
+      </c>
+      <c r="K93">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>415.5001973785279</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>623.2502960677919</v>
+      </c>
+      <c r="H94">
+        <v>0.39</v>
+      </c>
+      <c r="I94">
+        <v>0.49</v>
+      </c>
+      <c r="J94">
+        <v>0.14</v>
+      </c>
+      <c r="K94">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>348.1799970518844</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>522.2699955778266</v>
+      </c>
+      <c r="H95">
+        <v>0.34</v>
+      </c>
+      <c r="I95">
+        <v>0.45</v>
+      </c>
+      <c r="J95">
+        <v>0.15</v>
+      </c>
+      <c r="K95">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>288.1905259066871</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>432.2857888600307</v>
+      </c>
+      <c r="H96">
+        <v>0.39</v>
+      </c>
+      <c r="I96">
+        <v>0.47</v>
+      </c>
+      <c r="J96">
+        <v>0.18</v>
+      </c>
+      <c r="K96">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>213.4012807536664</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>320.1019211304996</v>
+      </c>
+      <c r="H97">
+        <v>0.35</v>
+      </c>
+      <c r="I97">
+        <v>0.44</v>
+      </c>
+      <c r="J97">
+        <v>0.13</v>
+      </c>
+      <c r="K97">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>144.1644207758104</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>216.2466311637156</v>
+      </c>
+      <c r="H98">
+        <v>0.35</v>
+      </c>
+      <c r="I98">
+        <v>0.41</v>
+      </c>
+      <c r="J98">
+        <v>0.14</v>
+      </c>
+      <c r="K98">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>106.6413622432907</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>159.9620433649361</v>
+      </c>
+      <c r="H99">
+        <v>0.33</v>
+      </c>
+      <c r="I99">
+        <v>0.41</v>
+      </c>
+      <c r="J99">
+        <v>0.12</v>
+      </c>
+      <c r="K99">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>97.80892034543027</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>146.7133805181454</v>
+      </c>
+      <c r="H100">
+        <v>0.35</v>
+      </c>
+      <c r="I100">
+        <v>0.41</v>
+      </c>
+      <c r="J100">
+        <v>0.17</v>
+      </c>
+      <c r="K100">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>95.20068246955216</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>142.8010237043283</v>
+      </c>
+      <c r="H101">
+        <v>0.36</v>
+      </c>
+      <c r="I101">
+        <v>0.45</v>
+      </c>
+      <c r="J101">
+        <v>0.14</v>
+      </c>
+      <c r="K101">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>96.74191394166269</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>145.112870912494</v>
+      </c>
+      <c r="H102">
+        <v>0.37</v>
+      </c>
+      <c r="I102">
+        <v>0.48</v>
+      </c>
+      <c r="J102">
+        <v>0.12</v>
+      </c>
+      <c r="K102">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>115.9085104537969</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>173.8627656806953</v>
+      </c>
+      <c r="H103">
+        <v>0.3</v>
+      </c>
+      <c r="I103">
+        <v>0.43</v>
+      </c>
+      <c r="J103">
+        <v>0.16</v>
+      </c>
+      <c r="K103">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>222.7474664755633</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>334.1211997133449</v>
+      </c>
+      <c r="H104">
+        <v>0.33</v>
+      </c>
+      <c r="I104">
+        <v>0.49</v>
+      </c>
+      <c r="J104">
+        <v>0.17</v>
+      </c>
+      <c r="K104">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>319.963605485566</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>479.945408228349</v>
+      </c>
+      <c r="H105">
+        <v>0.34</v>
+      </c>
+      <c r="I105">
+        <v>0.43</v>
+      </c>
+      <c r="J105">
+        <v>0.13</v>
+      </c>
+      <c r="K105">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>330.1001663213652</v>
+      </c>
+      <c r="D106">
+        <v>0.00833334</v>
+      </c>
+      <c r="E106">
+        <v>0.00833334</v>
+      </c>
+      <c r="F106">
+        <v>0.01666668</v>
+      </c>
+      <c r="G106">
+        <v>495.1502494820478</v>
+      </c>
+      <c r="H106">
+        <v>0.4</v>
+      </c>
+      <c r="I106">
+        <v>0.42</v>
+      </c>
+      <c r="J106">
+        <v>0.13</v>
+      </c>
+      <c r="K106">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>304.6303282758586</v>
+      </c>
+      <c r="D107">
+        <v>0.03333336</v>
+      </c>
+      <c r="E107">
+        <v>0.03333336</v>
+      </c>
+      <c r="F107">
+        <v>0.06666672</v>
+      </c>
+      <c r="G107">
+        <v>456.9454924137879</v>
+      </c>
+      <c r="H107">
+        <v>0.34</v>
+      </c>
+      <c r="I107">
+        <v>0.49</v>
+      </c>
+      <c r="J107">
+        <v>0.12</v>
+      </c>
+      <c r="K107">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>287.4199101706323</v>
+      </c>
+      <c r="D108">
+        <v>0.02500002</v>
+      </c>
+      <c r="E108">
+        <v>0.02500002</v>
+      </c>
+      <c r="F108">
+        <v>0.05000004</v>
+      </c>
+      <c r="G108">
+        <v>431.1298652559485</v>
+      </c>
+      <c r="H108">
+        <v>0.35</v>
+      </c>
+      <c r="I108">
+        <v>0.41</v>
+      </c>
+      <c r="J108">
+        <v>0.18</v>
+      </c>
+      <c r="K108">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>292.5968671666935</v>
+      </c>
+      <c r="D109">
+        <v>0.00555556</v>
+      </c>
+      <c r="E109">
+        <v>0.00555556</v>
+      </c>
+      <c r="F109">
+        <v>0.01111112</v>
+      </c>
+      <c r="G109">
+        <v>438.8953007500403</v>
+      </c>
+      <c r="H109">
+        <v>0.4</v>
+      </c>
+      <c r="I109">
+        <v>0.4</v>
+      </c>
+      <c r="J109">
+        <v>0.1</v>
+      </c>
+      <c r="K109">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>323.1843840747187</v>
+      </c>
+      <c r="D110">
+        <v>0.04722226</v>
+      </c>
+      <c r="E110">
+        <v>0.04722226</v>
+      </c>
+      <c r="F110">
+        <v>0.09444452</v>
+      </c>
+      <c r="G110">
+        <v>484.776576112078</v>
+      </c>
+      <c r="H110">
+        <v>0.34</v>
+      </c>
+      <c r="I110">
+        <v>0.43</v>
+      </c>
+      <c r="J110">
+        <v>0.2</v>
+      </c>
+      <c r="K110">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>320.1809586418897</v>
+      </c>
+      <c r="D111">
+        <v>0.06666672</v>
+      </c>
+      <c r="E111">
+        <v>0.06666672</v>
+      </c>
+      <c r="F111">
+        <v>0.13333344</v>
+      </c>
+      <c r="G111">
+        <v>480.2714379628345</v>
+      </c>
+      <c r="H111">
+        <v>0.38</v>
+      </c>
+      <c r="I111">
+        <v>0.4</v>
+      </c>
+      <c r="J111">
+        <v>0.2</v>
+      </c>
+      <c r="K111">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>285.2266192295535</v>
+      </c>
+      <c r="D112">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="E112">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="F112">
+        <v>0.17222236</v>
+      </c>
+      <c r="G112">
+        <v>427.8399288443302</v>
+      </c>
+      <c r="H112">
+        <v>0.32</v>
+      </c>
+      <c r="I112">
+        <v>0.48</v>
+      </c>
+      <c r="J112">
+        <v>0.12</v>
+      </c>
+      <c r="K112">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>259.2232779821619</v>
+      </c>
+      <c r="D113">
+        <v>0.01944446</v>
+      </c>
+      <c r="E113">
+        <v>0.01944446</v>
+      </c>
+      <c r="F113">
+        <v>0.03888892</v>
+      </c>
+      <c r="G113">
+        <v>388.8349169732429</v>
+      </c>
+      <c r="H113">
+        <v>0.32</v>
+      </c>
+      <c r="I113">
+        <v>0.5</v>
+      </c>
+      <c r="J113">
+        <v>0.15</v>
+      </c>
+      <c r="K113">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>260.2112468745404</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>390.3168703118106</v>
+      </c>
+      <c r="H114">
+        <v>0.36</v>
+      </c>
+      <c r="I114">
+        <v>0.42</v>
+      </c>
+      <c r="J114">
+        <v>0.14</v>
+      </c>
+      <c r="K114">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>318.1259833457436</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>477.1889750186153</v>
+      </c>
+      <c r="H115">
+        <v>0.37</v>
+      </c>
+      <c r="I115">
+        <v>0.45</v>
+      </c>
+      <c r="J115">
+        <v>0.13</v>
+      </c>
+      <c r="K115">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>410.9160217178929</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>616.3740325768393</v>
+      </c>
+      <c r="H116">
+        <v>0.33</v>
+      </c>
+      <c r="I116">
+        <v>0.44</v>
+      </c>
+      <c r="J116">
+        <v>0.17</v>
+      </c>
+      <c r="K116">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>462.5472760335722</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>693.8209140503583</v>
+      </c>
+      <c r="H117">
+        <v>0.36</v>
+      </c>
+      <c r="I117">
+        <v>0.4</v>
+      </c>
+      <c r="J117">
+        <v>0.1</v>
+      </c>
+      <c r="K117">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>415.994181824716</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>623.991272737074</v>
+      </c>
+      <c r="H118">
+        <v>0.39</v>
+      </c>
+      <c r="I118">
+        <v>0.49</v>
+      </c>
+      <c r="J118">
+        <v>0.18</v>
+      </c>
+      <c r="K118">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>348.6147033645313</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>522.9220550467969</v>
+      </c>
+      <c r="H119">
+        <v>0.37</v>
+      </c>
+      <c r="I119">
+        <v>0.41</v>
+      </c>
+      <c r="J119">
+        <v>0.16</v>
+      </c>
+      <c r="K119">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>288.5264353300959</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>432.7896529951439</v>
+      </c>
+      <c r="H120">
+        <v>0.34</v>
+      </c>
+      <c r="I120">
+        <v>0.44</v>
+      </c>
+      <c r="J120">
+        <v>0.12</v>
+      </c>
+      <c r="K120">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>213.6383932878371</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>320.4575899317556</v>
+      </c>
+      <c r="H121">
+        <v>0.37</v>
+      </c>
+      <c r="I121">
+        <v>0.48</v>
+      </c>
+      <c r="J121">
+        <v>0.12</v>
+      </c>
+      <c r="K121">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>144.302736420743</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>216.4541046311145</v>
+      </c>
+      <c r="H122">
+        <v>0.3</v>
+      </c>
+      <c r="I122">
+        <v>0.48</v>
+      </c>
+      <c r="J122">
+        <v>0.18</v>
+      </c>
+      <c r="K122">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>106.7599185103758</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>160.1398777655637</v>
+      </c>
+      <c r="H123">
+        <v>0.31</v>
+      </c>
+      <c r="I123">
+        <v>0.46</v>
+      </c>
+      <c r="J123">
+        <v>0.18</v>
+      </c>
+      <c r="K123">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>97.90771723466837</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>146.8615758520025</v>
+      </c>
+      <c r="H124">
+        <v>0.32</v>
+      </c>
+      <c r="I124">
+        <v>0.43</v>
+      </c>
+      <c r="J124">
+        <v>0.2</v>
+      </c>
+      <c r="K124">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>95.31923873663729</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>142.9788581049559</v>
+      </c>
+      <c r="H125">
+        <v>0.33</v>
+      </c>
+      <c r="I125">
+        <v>0.43</v>
+      </c>
+      <c r="J125">
+        <v>0.2</v>
+      </c>
+      <c r="K125">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>96.86047020874781</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>145.2907053131217</v>
+      </c>
+      <c r="H126">
+        <v>0.38</v>
+      </c>
+      <c r="I126">
+        <v>0.44</v>
+      </c>
+      <c r="J126">
+        <v>0.15</v>
+      </c>
+      <c r="K126">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>116.0468260987296</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>174.0702391480944</v>
+      </c>
+      <c r="H127">
+        <v>0.32</v>
+      </c>
+      <c r="I127">
+        <v>0.4</v>
+      </c>
+      <c r="J127">
+        <v>0.14</v>
+      </c>
+      <c r="K127">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>222.964819631886</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>334.447229447829</v>
+      </c>
+      <c r="H128">
+        <v>0.4</v>
+      </c>
+      <c r="I128">
+        <v>0.41</v>
+      </c>
+      <c r="J128">
+        <v>0.1</v>
+      </c>
+      <c r="K128">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>320.3192742868229</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>480.4789114302343</v>
+      </c>
+      <c r="H129">
+        <v>0.3</v>
+      </c>
+      <c r="I129">
+        <v>0.5</v>
+      </c>
+      <c r="J129">
+        <v>0.18</v>
+      </c>
+      <c r="K129">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>330.4755945004696</v>
+      </c>
+      <c r="D130">
+        <v>0.03333336</v>
+      </c>
+      <c r="E130">
+        <v>0.03333336</v>
+      </c>
+      <c r="F130">
+        <v>0.06666672</v>
+      </c>
+      <c r="G130">
+        <v>495.7133917507044</v>
+      </c>
+      <c r="H130">
+        <v>0.37</v>
+      </c>
+      <c r="I130">
+        <v>0.43</v>
+      </c>
+      <c r="J130">
+        <v>0.11</v>
+      </c>
+      <c r="K130">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>304.9464783214199</v>
+      </c>
+      <c r="D131">
+        <v>0.1111112</v>
+      </c>
+      <c r="E131">
+        <v>0.1111112</v>
+      </c>
+      <c r="F131">
+        <v>0.2222224</v>
+      </c>
+      <c r="G131">
+        <v>457.4197174821298</v>
+      </c>
+      <c r="H131">
+        <v>0.37</v>
+      </c>
+      <c r="I131">
+        <v>0.45</v>
+      </c>
+      <c r="J131">
+        <v>0.1</v>
+      </c>
+      <c r="K131">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>287.7163008383456</v>
+      </c>
+      <c r="D132">
+        <v>0.22500018</v>
+      </c>
+      <c r="E132">
+        <v>0.22500018</v>
+      </c>
+      <c r="F132">
+        <v>0.45000036</v>
+      </c>
+      <c r="G132">
+        <v>431.5744512575184</v>
+      </c>
+      <c r="H132">
+        <v>0.36</v>
+      </c>
+      <c r="I132">
+        <v>0.45</v>
+      </c>
+      <c r="J132">
+        <v>0.16</v>
+      </c>
+      <c r="K132">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>292.8932578344068</v>
+      </c>
+      <c r="D133">
+        <v>0.23333352</v>
+      </c>
+      <c r="E133">
+        <v>0.23333352</v>
+      </c>
+      <c r="F133">
+        <v>0.46666704</v>
+      </c>
+      <c r="G133">
+        <v>439.3398867516103</v>
+      </c>
+      <c r="H133">
+        <v>0.4</v>
+      </c>
+      <c r="I133">
+        <v>0.47</v>
+      </c>
+      <c r="J133">
+        <v>0.17</v>
+      </c>
+      <c r="K133">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>323.5202934981281</v>
+      </c>
+      <c r="D134">
+        <v>0.17500014</v>
+      </c>
+      <c r="E134">
+        <v>0.17500014</v>
+      </c>
+      <c r="F134">
+        <v>0.35000028</v>
+      </c>
+      <c r="G134">
+        <v>485.2804402471922</v>
+      </c>
+      <c r="H134">
+        <v>0.32</v>
+      </c>
+      <c r="I134">
+        <v>0.49</v>
+      </c>
+      <c r="J134">
+        <v>0.17</v>
+      </c>
+      <c r="K134">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>320.516868065298</v>
+      </c>
+      <c r="D135">
+        <v>0.09444452</v>
+      </c>
+      <c r="E135">
+        <v>0.09444452</v>
+      </c>
+      <c r="F135">
+        <v>0.18888904</v>
+      </c>
+      <c r="G135">
+        <v>480.775302097947</v>
+      </c>
+      <c r="H135">
+        <v>0.33</v>
+      </c>
+      <c r="I135">
+        <v>0.47</v>
+      </c>
+      <c r="J135">
+        <v>0.11</v>
+      </c>
+      <c r="K135">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>285.5427692751139</v>
+      </c>
+      <c r="D136">
+        <v>0.0555556</v>
+      </c>
+      <c r="E136">
+        <v>0.0555556</v>
+      </c>
+      <c r="F136">
+        <v>0.1111112</v>
+      </c>
+      <c r="G136">
+        <v>428.3141539126709</v>
+      </c>
+      <c r="H136">
+        <v>0.31</v>
+      </c>
+      <c r="I136">
+        <v>0.44</v>
+      </c>
+      <c r="J136">
+        <v>0.17</v>
+      </c>
+      <c r="K136">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>259.4801498941802</v>
+      </c>
+      <c r="D137">
+        <v>0.01666668</v>
+      </c>
+      <c r="E137">
+        <v>0.01666668</v>
+      </c>
+      <c r="F137">
+        <v>0.03333336</v>
+      </c>
+      <c r="G137">
+        <v>389.2202248412704</v>
+      </c>
+      <c r="H137">
+        <v>0.36</v>
+      </c>
+      <c r="I137">
+        <v>0.49</v>
+      </c>
+      <c r="J137">
+        <v>0.19</v>
+      </c>
+      <c r="K137">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>260.4681187865582</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>390.7021781798373</v>
+      </c>
+      <c r="H138">
+        <v>0.35</v>
+      </c>
+      <c r="I138">
+        <v>0.5</v>
+      </c>
+      <c r="J138">
+        <v>0.19</v>
+      </c>
+      <c r="K138">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>318.461892769152</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>477.692839153728</v>
+      </c>
+      <c r="H139">
+        <v>0.31</v>
+      </c>
+      <c r="I139">
+        <v>0.47</v>
+      </c>
+      <c r="J139">
+        <v>0.11</v>
+      </c>
+      <c r="K139">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>411.3507280305393</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>617.0260920458089</v>
+      </c>
+      <c r="H140">
+        <v>0.35</v>
+      </c>
+      <c r="I140">
+        <v>0.4</v>
+      </c>
+      <c r="J140">
+        <v>0.11</v>
+      </c>
+      <c r="K140">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>463.0215011019132</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>694.5322516528698</v>
+      </c>
+      <c r="H141">
+        <v>0.39</v>
+      </c>
+      <c r="I141">
+        <v>0.44</v>
+      </c>
+      <c r="J141">
+        <v>0.1</v>
+      </c>
+      <c r="K141">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>416.4091287595159</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>624.6136931392739</v>
+      </c>
+      <c r="H142">
+        <v>0.39</v>
+      </c>
+      <c r="I142">
+        <v>0.46</v>
+      </c>
+      <c r="J142">
+        <v>0.18</v>
+      </c>
+      <c r="K142">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>348.9703721657871</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>523.4555582486807</v>
+      </c>
+      <c r="H143">
+        <v>0.31</v>
+      </c>
+      <c r="I143">
+        <v>0.43</v>
+      </c>
+      <c r="J143">
+        <v>0.2</v>
+      </c>
+      <c r="K143">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>288.8030666199617</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>433.2045999299426</v>
+      </c>
+      <c r="H144">
+        <v>0.37</v>
+      </c>
+      <c r="I144">
+        <v>0.5</v>
+      </c>
+      <c r="J144">
+        <v>0.19</v>
+      </c>
+      <c r="K144">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>213.8755058220074</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>320.8132587330111</v>
+      </c>
+      <c r="H145">
+        <v>0.39</v>
+      </c>
+      <c r="I145">
+        <v>0.45</v>
+      </c>
+      <c r="J145">
+        <v>0.17</v>
+      </c>
+      <c r="K145">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>144.4410520656761</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>216.6615780985142</v>
+      </c>
+      <c r="H146">
+        <v>0.3</v>
+      </c>
+      <c r="I146">
+        <v>0.42</v>
+      </c>
+      <c r="J146">
+        <v>0.18</v>
+      </c>
+      <c r="K146">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>106.8587153996134</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>160.2880730994201</v>
+      </c>
+      <c r="H147">
+        <v>0.37</v>
+      </c>
+      <c r="I147">
+        <v>0.49</v>
+      </c>
+      <c r="J147">
+        <v>0.14</v>
+      </c>
+      <c r="K147">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>98.00651412390597</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>147.009771185859</v>
+      </c>
+      <c r="H148">
+        <v>0.31</v>
+      </c>
+      <c r="I148">
+        <v>0.44</v>
+      </c>
+      <c r="J148">
+        <v>0.11</v>
+      </c>
+      <c r="K148">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>95.39827624802834</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>143.0974143720425</v>
+      </c>
+      <c r="H149">
+        <v>0.33</v>
+      </c>
+      <c r="I149">
+        <v>0.48</v>
+      </c>
+      <c r="J149">
+        <v>0.12</v>
+      </c>
+      <c r="K149">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>96.9395077201379</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>145.4092615802068</v>
+      </c>
+      <c r="H150">
+        <v>0.34</v>
+      </c>
+      <c r="I150">
+        <v>0.45</v>
+      </c>
+      <c r="J150">
+        <v>0.13</v>
+      </c>
+      <c r="K150">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>116.1258636101197</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>174.1887954151795</v>
+      </c>
+      <c r="H151">
+        <v>0.32</v>
+      </c>
+      <c r="I151">
+        <v>0.42</v>
+      </c>
+      <c r="J151">
+        <v>0.11</v>
+      </c>
+      <c r="K151">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>223.2019321660568</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>334.8028982490852</v>
+      </c>
+      <c r="H152">
+        <v>0.4</v>
+      </c>
+      <c r="I152">
+        <v>0.46</v>
+      </c>
+      <c r="J152">
+        <v>0.18</v>
+      </c>
+      <c r="K152">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>320.6354243323836</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>480.9531364985754</v>
+      </c>
+      <c r="H153">
+        <v>0.37</v>
+      </c>
+      <c r="I153">
+        <v>0.48</v>
+      </c>
+      <c r="J153">
+        <v>0.12</v>
+      </c>
+      <c r="K153">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>330.8115039238779</v>
+      </c>
+      <c r="D154">
+        <v>0.00277778</v>
+      </c>
+      <c r="E154">
+        <v>0.00277778</v>
+      </c>
+      <c r="F154">
+        <v>0.00555556</v>
+      </c>
+      <c r="G154">
+        <v>496.2172558858169</v>
+      </c>
+      <c r="H154">
+        <v>0.4</v>
+      </c>
+      <c r="I154">
+        <v>0.44</v>
+      </c>
+      <c r="J154">
+        <v>0.11</v>
+      </c>
+      <c r="K154">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>305.2823877448282</v>
+      </c>
+      <c r="D155">
+        <v>0.0138889</v>
+      </c>
+      <c r="E155">
+        <v>0.0138889</v>
+      </c>
+      <c r="F155">
+        <v>0.0277778</v>
+      </c>
+      <c r="G155">
+        <v>457.9235816172423</v>
+      </c>
+      <c r="H155">
+        <v>0.3</v>
+      </c>
+      <c r="I155">
+        <v>0.42</v>
+      </c>
+      <c r="J155">
+        <v>0.19</v>
+      </c>
+      <c r="K155">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>287.9929321282124</v>
+      </c>
+      <c r="D156">
+        <v>0.04722226</v>
+      </c>
+      <c r="E156">
+        <v>0.04722226</v>
+      </c>
+      <c r="F156">
+        <v>0.09444452</v>
+      </c>
+      <c r="G156">
+        <v>431.9893981923186</v>
+      </c>
+      <c r="H156">
+        <v>0.4</v>
+      </c>
+      <c r="I156">
+        <v>0.41</v>
+      </c>
+      <c r="J156">
+        <v>0.19</v>
+      </c>
+      <c r="K156">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>293.1896485021206</v>
+      </c>
+      <c r="D157">
+        <v>0.10833342</v>
+      </c>
+      <c r="E157">
+        <v>0.10833342</v>
+      </c>
+      <c r="F157">
+        <v>0.21666684</v>
+      </c>
+      <c r="G157">
+        <v>439.7844727531809</v>
+      </c>
+      <c r="H157">
+        <v>0.34</v>
+      </c>
+      <c r="I157">
+        <v>0.49</v>
+      </c>
+      <c r="J157">
+        <v>0.1</v>
+      </c>
+      <c r="K157">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>323.8759622993839</v>
+      </c>
+      <c r="D158">
+        <v>0.09166674</v>
+      </c>
+      <c r="E158">
+        <v>0.09166674</v>
+      </c>
+      <c r="F158">
+        <v>0.18333348</v>
+      </c>
+      <c r="G158">
+        <v>485.8139434490759</v>
+      </c>
+      <c r="H158">
+        <v>0.35</v>
+      </c>
+      <c r="I158">
+        <v>0.46</v>
+      </c>
+      <c r="J158">
+        <v>0.1</v>
+      </c>
+      <c r="K158">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>320.8330181108594</v>
+      </c>
+      <c r="D159">
+        <v>0.08888896</v>
+      </c>
+      <c r="E159">
+        <v>0.08888896</v>
+      </c>
+      <c r="F159">
+        <v>0.17777792</v>
+      </c>
+      <c r="G159">
+        <v>481.2495271662891</v>
+      </c>
+      <c r="H159">
+        <v>0.32</v>
+      </c>
+      <c r="I159">
+        <v>0.41</v>
+      </c>
+      <c r="J159">
+        <v>0.18</v>
+      </c>
+      <c r="K159">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>285.8391599428268</v>
+      </c>
+      <c r="D160">
+        <v>0.08888896</v>
+      </c>
+      <c r="E160">
+        <v>0.08888896</v>
+      </c>
+      <c r="F160">
+        <v>0.17777792</v>
+      </c>
+      <c r="G160">
+        <v>428.7587399142402</v>
+      </c>
+      <c r="H160">
+        <v>0.4</v>
+      </c>
+      <c r="I160">
+        <v>0.46</v>
+      </c>
+      <c r="J160">
+        <v>0.12</v>
+      </c>
+      <c r="K160">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>259.7567811840465</v>
+      </c>
+      <c r="D161">
+        <v>0.02222224</v>
+      </c>
+      <c r="E161">
+        <v>0.02222224</v>
+      </c>
+      <c r="F161">
+        <v>0.04444448</v>
+      </c>
+      <c r="G161">
+        <v>389.6351717760697</v>
+      </c>
+      <c r="H161">
+        <v>0.38</v>
+      </c>
+      <c r="I161">
+        <v>0.45</v>
+      </c>
+      <c r="J161">
+        <v>0.13</v>
+      </c>
+      <c r="K161">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>260.7645094542715</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>391.1467641814072</v>
+      </c>
+      <c r="H162">
+        <v>0.31</v>
+      </c>
+      <c r="I162">
+        <v>0.47</v>
+      </c>
+      <c r="J162">
+        <v>0.13</v>
+      </c>
+      <c r="K162">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>318.7780428147128</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>478.1670642220693</v>
+      </c>
+      <c r="H163">
+        <v>0.37</v>
+      </c>
+      <c r="I163">
+        <v>0.46</v>
+      </c>
+      <c r="J163">
+        <v>0.1</v>
+      </c>
+      <c r="K163">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>411.7656749653382</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>617.6485124480073</v>
+      </c>
+      <c r="H164">
+        <v>0.38</v>
+      </c>
+      <c r="I164">
+        <v>0.43</v>
+      </c>
+      <c r="J164">
+        <v>0.11</v>
+      </c>
+      <c r="K164">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>463.4957261702552</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>695.2435892553827</v>
+      </c>
+      <c r="H165">
+        <v>0.36</v>
+      </c>
+      <c r="I165">
+        <v>0.41</v>
+      </c>
+      <c r="J165">
+        <v>0.11</v>
+      </c>
+      <c r="K165">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>416.8438350721613</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>625.265752608242</v>
+      </c>
+      <c r="H166">
+        <v>0.37</v>
+      </c>
+      <c r="I166">
+        <v>0.44</v>
+      </c>
+      <c r="J166">
+        <v>0.17</v>
+      </c>
+      <c r="K166">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>349.326040967043</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>523.9890614505646</v>
+      </c>
+      <c r="H167">
+        <v>0.31</v>
+      </c>
+      <c r="I167">
+        <v>0.4</v>
+      </c>
+      <c r="J167">
+        <v>0.2</v>
+      </c>
+      <c r="K167">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>289.1192166655225</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>433.6788249982837</v>
+      </c>
+      <c r="H168">
+        <v>0.35</v>
+      </c>
+      <c r="I168">
+        <v>0.5</v>
+      </c>
+      <c r="J168">
+        <v>0.11</v>
+      </c>
+      <c r="K168">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>214.0928589783306</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>321.1392884674959</v>
+      </c>
+      <c r="H169">
+        <v>0.31</v>
+      </c>
+      <c r="I169">
+        <v>0.42</v>
+      </c>
+      <c r="J169">
+        <v>0.14</v>
+      </c>
+      <c r="K169">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>144.5991270884563</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>216.8986906326845</v>
+      </c>
+      <c r="H170">
+        <v>0.36</v>
+      </c>
+      <c r="I170">
+        <v>0.44</v>
+      </c>
+      <c r="J170">
+        <v>0.14</v>
+      </c>
+      <c r="K170">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>106.957512288851</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>160.4362684332765</v>
+      </c>
+      <c r="H171">
+        <v>0.3</v>
+      </c>
+      <c r="I171">
+        <v>0.46</v>
+      </c>
+      <c r="J171">
+        <v>0.18</v>
+      </c>
+      <c r="K171">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>98.08555163529606</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>147.1283274529441</v>
+      </c>
+      <c r="H172">
+        <v>0.37</v>
+      </c>
+      <c r="I172">
+        <v>0.48</v>
+      </c>
+      <c r="J172">
+        <v>0.2</v>
+      </c>
+      <c r="K172">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>95.49707313726594</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>143.2456097058989</v>
+      </c>
+      <c r="H173">
+        <v>0.37</v>
+      </c>
+      <c r="I173">
+        <v>0.42</v>
+      </c>
+      <c r="J173">
+        <v>0.13</v>
+      </c>
+      <c r="K173">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>97.0383046093755</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>145.5574569140633</v>
+      </c>
+      <c r="H174">
+        <v>0.36</v>
+      </c>
+      <c r="I174">
+        <v>0.47</v>
+      </c>
+      <c r="J174">
+        <v>0.15</v>
+      </c>
+      <c r="K174">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>116.2444198772053</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>174.366629815808</v>
+      </c>
+      <c r="H175">
+        <v>0.35</v>
+      </c>
+      <c r="I175">
+        <v>0.46</v>
+      </c>
+      <c r="J175">
+        <v>0.12</v>
+      </c>
+      <c r="K175">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>223.3995259445325</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>335.0992889167987</v>
+      </c>
+      <c r="H176">
+        <v>0.3</v>
+      </c>
+      <c r="I176">
+        <v>0.49</v>
+      </c>
+      <c r="J176">
+        <v>0.19</v>
+      </c>
+      <c r="K176">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>320.9318150000965</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>481.3977225001447</v>
+      </c>
+      <c r="H177">
+        <v>0.33</v>
+      </c>
+      <c r="I177">
+        <v>0.5</v>
+      </c>
+      <c r="J177">
+        <v>0.2</v>
+      </c>
+      <c r="K177">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>331.1078945915917</v>
+      </c>
+      <c r="D178">
+        <v>0.01944446</v>
+      </c>
+      <c r="E178">
+        <v>0.01944446</v>
+      </c>
+      <c r="F178">
+        <v>0.03888892</v>
+      </c>
+      <c r="G178">
+        <v>496.6618418873875</v>
+      </c>
+      <c r="H178">
+        <v>0.31</v>
+      </c>
+      <c r="I178">
+        <v>0.43</v>
+      </c>
+      <c r="J178">
+        <v>0.11</v>
+      </c>
+      <c r="K178">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>305.5590190346935</v>
+      </c>
+      <c r="D179">
+        <v>0.03888892</v>
+      </c>
+      <c r="E179">
+        <v>0.03888892</v>
+      </c>
+      <c r="F179">
+        <v>0.07777784</v>
+      </c>
+      <c r="G179">
+        <v>458.3385285520403</v>
+      </c>
+      <c r="H179">
+        <v>0.39</v>
+      </c>
+      <c r="I179">
+        <v>0.41</v>
+      </c>
+      <c r="J179">
+        <v>0.14</v>
+      </c>
+      <c r="K179">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>288.2695634180777</v>
+      </c>
+      <c r="D180">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="E180">
+        <v>0.08611118000000001</v>
+      </c>
+      <c r="F180">
+        <v>0.17222236</v>
+      </c>
+      <c r="G180">
+        <v>432.4043451271166</v>
+      </c>
+      <c r="H180">
+        <v>0.32</v>
+      </c>
+      <c r="I180">
+        <v>0.47</v>
+      </c>
+      <c r="J180">
+        <v>0.13</v>
+      </c>
+      <c r="K180">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>293.4662797919864</v>
+      </c>
+      <c r="D181">
+        <v>0.10000008</v>
+      </c>
+      <c r="E181">
+        <v>0.10000008</v>
+      </c>
+      <c r="F181">
+        <v>0.20000016</v>
+      </c>
+      <c r="G181">
+        <v>440.1994196879796</v>
+      </c>
+      <c r="H181">
+        <v>0.32</v>
+      </c>
+      <c r="I181">
+        <v>0.49</v>
+      </c>
+      <c r="J181">
+        <v>0.16</v>
+      </c>
+      <c r="K181">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>324.1525935892492</v>
+      </c>
+      <c r="D182">
+        <v>0.10277786</v>
+      </c>
+      <c r="E182">
+        <v>0.10277786</v>
+      </c>
+      <c r="F182">
+        <v>0.20555572</v>
+      </c>
+      <c r="G182">
+        <v>486.2288903838738</v>
+      </c>
+      <c r="H182">
+        <v>0.36</v>
+      </c>
+      <c r="I182">
+        <v>0.43</v>
+      </c>
+      <c r="J182">
+        <v>0.2</v>
+      </c>
+      <c r="K182">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>321.1294087785726</v>
+      </c>
+      <c r="D183">
+        <v>0.11666676</v>
+      </c>
+      <c r="E183">
+        <v>0.11666676</v>
+      </c>
+      <c r="F183">
+        <v>0.23333352</v>
+      </c>
+      <c r="G183">
+        <v>481.6941131678589</v>
+      </c>
+      <c r="H183">
+        <v>0.34</v>
+      </c>
+      <c r="I183">
+        <v>0.43</v>
+      </c>
+      <c r="J183">
+        <v>0.18</v>
+      </c>
+      <c r="K183">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>286.0960318548464</v>
+      </c>
+      <c r="D184">
+        <v>0.1527779</v>
+      </c>
+      <c r="E184">
+        <v>0.1527779</v>
+      </c>
+      <c r="F184">
+        <v>0.3055558</v>
+      </c>
+      <c r="G184">
+        <v>429.1440477822696</v>
+      </c>
+      <c r="H184">
+        <v>0.33</v>
+      </c>
+      <c r="I184">
+        <v>0.46</v>
+      </c>
+      <c r="J184">
+        <v>0.14</v>
+      </c>
+      <c r="K184">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>259.9938937182167</v>
+      </c>
+      <c r="D185">
+        <v>0.03611114</v>
+      </c>
+      <c r="E185">
+        <v>0.03611114</v>
+      </c>
+      <c r="F185">
+        <v>0.07222228</v>
+      </c>
+      <c r="G185">
+        <v>389.9908405773251</v>
+      </c>
+      <c r="H185">
+        <v>0.36</v>
+      </c>
+      <c r="I185">
+        <v>0.48</v>
+      </c>
+      <c r="J185">
+        <v>0.16</v>
+      </c>
+      <c r="K185">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>260.9818626105947</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>391.4727939158921</v>
+      </c>
+      <c r="H186">
+        <v>0.4</v>
+      </c>
+      <c r="I186">
+        <v>0.45</v>
+      </c>
+      <c r="J186">
+        <v>0.15</v>
+      </c>
+      <c r="K186">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>319.0744334824266</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>478.6116502236399</v>
+      </c>
+      <c r="H187">
+        <v>0.32</v>
+      </c>
+      <c r="I187">
+        <v>0.43</v>
+      </c>
+      <c r="J187">
+        <v>0.1</v>
+      </c>
+      <c r="K187">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>412.1411031444421</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>618.2116547166631</v>
+      </c>
+      <c r="H188">
+        <v>0.37</v>
+      </c>
+      <c r="I188">
+        <v>0.47</v>
+      </c>
+      <c r="J188">
+        <v>0.11</v>
+      </c>
+      <c r="K188">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>463.9304324829006</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>695.8956487243508</v>
+      </c>
+      <c r="H189">
+        <v>0.32</v>
+      </c>
+      <c r="I189">
+        <v>0.42</v>
+      </c>
+      <c r="J189">
+        <v>0.18</v>
+      </c>
+      <c r="K189">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>417.2192632512651</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>625.8288948768976</v>
+      </c>
+      <c r="H190">
+        <v>0.37</v>
+      </c>
+      <c r="I190">
+        <v>0.5</v>
+      </c>
+      <c r="J190">
+        <v>0.16</v>
+      </c>
+      <c r="K190">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>349.6421910126043</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>524.4632865189064</v>
+      </c>
+      <c r="H191">
+        <v>0.32</v>
+      </c>
+      <c r="I191">
+        <v>0.47</v>
+      </c>
+      <c r="J191">
+        <v>0.12</v>
+      </c>
+      <c r="K191">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>289.3563291996937</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>434.0344937995405</v>
+      </c>
+      <c r="H192">
+        <v>0.38</v>
+      </c>
+      <c r="I192">
+        <v>0.48</v>
+      </c>
+      <c r="J192">
+        <v>0.19</v>
+      </c>
+      <c r="K192">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>214.2706933789593</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>321.4060400684389</v>
+      </c>
+      <c r="H193">
+        <v>0.31</v>
+      </c>
+      <c r="I193">
+        <v>0.41</v>
+      </c>
+      <c r="J193">
+        <v>0.16</v>
+      </c>
+      <c r="K193">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>166.4134802321642</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>249.6202203482463</v>
+      </c>
+      <c r="H194">
+        <v>0.3</v>
+      </c>
+      <c r="I194">
+        <v>0.42</v>
+      </c>
+      <c r="J194">
+        <v>0.14</v>
+      </c>
+      <c r="K194">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>131.2813064191999</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>196.9219596287998</v>
+      </c>
+      <c r="H195">
+        <v>0.33</v>
+      </c>
+      <c r="I195">
+        <v>0.49</v>
+      </c>
+      <c r="J195">
+        <v>0.19</v>
+      </c>
+      <c r="K195">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>104.487590057906</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>156.731385086859</v>
+      </c>
+      <c r="H196">
+        <v>0.32</v>
+      </c>
+      <c r="I196">
+        <v>0.46</v>
+      </c>
+      <c r="J196">
+        <v>0.19</v>
+      </c>
+      <c r="K196">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>98.54001732579052</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>147.8100259886858</v>
+      </c>
+      <c r="H197">
+        <v>0.39</v>
+      </c>
+      <c r="I197">
+        <v>0.42</v>
+      </c>
+      <c r="J197">
+        <v>0.14</v>
+      </c>
+      <c r="K197">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>95.49707313726594</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>143.2456097058989</v>
+      </c>
+      <c r="H198">
+        <v>0.35</v>
+      </c>
+      <c r="I198">
+        <v>0.41</v>
+      </c>
+      <c r="J198">
+        <v>0.15</v>
+      </c>
+      <c r="K198">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>99.46870808462545</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>149.2030621269382</v>
+      </c>
+      <c r="H199">
+        <v>0.33</v>
+      </c>
+      <c r="I199">
+        <v>0.47</v>
+      </c>
+      <c r="J199">
+        <v>0.15</v>
+      </c>
+      <c r="K199">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>131.7950502432364</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>197.6925753648546</v>
+      </c>
+      <c r="H200">
+        <v>0.35</v>
+      </c>
+      <c r="I200">
+        <v>0.41</v>
+      </c>
+      <c r="J200">
+        <v>0.19</v>
+      </c>
+      <c r="K200">
+        <v>0.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
